--- a/AAII_Financials/Quarterly/ULH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ULH_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>ULH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,207 +665,232 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43925</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43372</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42917</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42826</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>382200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>375900</v>
+      </c>
+      <c r="F8" s="3">
         <v>375500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>383200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>377400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>386400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>374300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>365900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>335100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>314000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>313000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>305200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>284400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>264100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>271500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>278200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>273000</v>
+      </c>
+      <c r="F9" s="3">
         <v>275800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>272000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>270500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>283600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>273400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>265700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>248000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>230400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>230800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>223800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>206800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>192300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>197100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>102900</v>
+      </c>
+      <c r="F10" s="3">
         <v>99700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>111200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>106900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>102800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>100900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>100200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>87100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>83600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>82200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>81400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>77600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>71800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>74400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -882,8 +907,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -926,8 +953,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,8 +1003,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1014,52 +1053,64 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E15" s="3">
+        <v>21600</v>
+      </c>
+      <c r="F15" s="3">
         <v>18800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>17400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>16900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>15000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>14000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>13200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>12200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>13300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>11800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>11500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>10300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>9900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,96 +1124,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>358300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>360400</v>
+      </c>
+      <c r="F17" s="3">
         <v>382800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>352500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>350900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>368500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>351800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>339700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>318000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>300900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>316500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>298800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>275300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>258200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>261500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>15500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-7300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>30700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>26500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>17900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>22500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>26200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>17100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>13100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-3500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>6400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>9100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>5900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,228 +1244,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>700</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
-      </c>
-      <c r="M20" s="3">
-        <v>500</v>
-      </c>
-      <c r="N20" s="3">
-        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>500</v>
       </c>
       <c r="P20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>500</v>
+      </c>
+      <c r="R20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>37800</v>
+      </c>
+      <c r="F21" s="3">
         <v>11600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>48200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>44400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>31400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>38300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>39900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>28900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>26600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>9100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>18400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>19600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>16300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F22" s="3">
         <v>4100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>4100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>4400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>4800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>4300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>3000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>2600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>2200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>2500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>2500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>2300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>2000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-11300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>26700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>23100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>11600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>20000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>23600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>14200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>11000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-5300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>4400</v>
-      </c>
-      <c r="N23" s="3">
-        <v>7000</v>
       </c>
       <c r="O23" s="3">
         <v>4400</v>
       </c>
       <c r="P23" s="3">
+        <v>7000</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>4400</v>
+      </c>
+      <c r="R23" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F24" s="3">
         <v>-2800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>6700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>5800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>2600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>4900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>6000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>3700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>4800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-2000</v>
-      </c>
-      <c r="M24" s="3">
-        <v>1700</v>
-      </c>
-      <c r="N24" s="3">
-        <v>2700</v>
       </c>
       <c r="O24" s="3">
         <v>1700</v>
       </c>
       <c r="P24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R24" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-8400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>20000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>17300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>9000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>15100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>17700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>10400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>6200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-3300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>2700</v>
-      </c>
-      <c r="N26" s="3">
-        <v>4300</v>
       </c>
       <c r="O26" s="3">
         <v>2700</v>
       </c>
       <c r="P26" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>2700</v>
+      </c>
+      <c r="R26" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-8400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>20000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>17300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>9000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>15100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>17700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>10400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>6200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>2700</v>
-      </c>
-      <c r="N27" s="3">
-        <v>4300</v>
       </c>
       <c r="O27" s="3">
         <v>2700</v>
       </c>
       <c r="P27" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>2700</v>
+      </c>
+      <c r="R27" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1601,14 +1722,14 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>18200</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>18200</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1619,8 +1740,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,96 +1840,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-100</v>
       </c>
       <c r="O32" s="3">
         <v>-500</v>
       </c>
       <c r="P32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-8400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>20000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>17300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>9000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>15100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>17700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>10400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>24400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>2700</v>
-      </c>
-      <c r="N33" s="3">
-        <v>4300</v>
       </c>
       <c r="O33" s="3">
         <v>2700</v>
       </c>
       <c r="P33" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>2700</v>
+      </c>
+      <c r="R33" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-8400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>20000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>17300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>9000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>15100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>17700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>10400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>24400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>2700</v>
-      </c>
-      <c r="N35" s="3">
-        <v>4300</v>
       </c>
       <c r="O35" s="3">
         <v>2700</v>
       </c>
       <c r="P35" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>2700</v>
+      </c>
+      <c r="R35" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43925</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43372</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42917</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42826</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,140 +2139,160 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F41" s="3">
         <v>6500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>6500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>6300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>5700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2500</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J41" s="3">
-        <v>2100</v>
       </c>
       <c r="K41" s="3">
         <v>1700</v>
       </c>
       <c r="L41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N41" s="3">
         <v>2900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>3400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E42" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F42" s="3">
         <v>9100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>9600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>10200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>9300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>10400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>12500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>11900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>15100</v>
-      </c>
-      <c r="L42" s="3">
-        <v>14600</v>
-      </c>
-      <c r="M42" s="3">
-        <v>14100</v>
       </c>
       <c r="N42" s="3">
         <v>14600</v>
       </c>
       <c r="O42" s="3">
+        <v>14100</v>
+      </c>
+      <c r="P42" s="3">
+        <v>14600</v>
+      </c>
+      <c r="Q42" s="3">
         <v>14400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>240500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>231300</v>
+      </c>
+      <c r="F43" s="3">
         <v>232200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>227100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>241100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>240400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>235600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>233900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>220500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>191200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>187400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>175000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>170900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>162700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>165100</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2144,96 +2335,114 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>23400</v>
+      </c>
+      <c r="F45" s="3">
         <v>19000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>22000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>17800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>19800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>25800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>21100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>18900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>20600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>23200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>30500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>23600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>28700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>276000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>271800</v>
+      </c>
+      <c r="F46" s="3">
         <v>266800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>265200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>275500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>275300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>274400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>269100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>253500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>228700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>228100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>221600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>212500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>207500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>203600</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2276,96 +2485,114 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>446200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>427000</v>
+      </c>
+      <c r="F48" s="3">
         <v>397300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>386700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>384100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>303200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>298600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>284400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>272700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>267200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>263400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>260800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>255200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>246300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>236500</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>282100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>284600</v>
+      </c>
+      <c r="F49" s="3">
         <v>265400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>270500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>254100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>258900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>189900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>126000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>126800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>105700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>107000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>108200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>109900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>111700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>113500</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,52 +2685,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F52" s="3">
         <v>5300</v>
-      </c>
-      <c r="E52" s="3">
-        <v>5700</v>
-      </c>
-      <c r="F52" s="3">
-        <v>6100</v>
       </c>
       <c r="G52" s="3">
         <v>5700</v>
       </c>
       <c r="H52" s="3">
+        <v>6100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J52" s="3">
         <v>6000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>8400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>9500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>9000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>5300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>5800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>5500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>5100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,52 +2785,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1008500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>988000</v>
+      </c>
+      <c r="F54" s="3">
         <v>934700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>928200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>919700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>843100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>769000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>687900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>662500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>610600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>603900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>596500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>583100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>570500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>558200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,272 +2879,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>88800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>91900</v>
+      </c>
+      <c r="F57" s="3">
         <v>101500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>95100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>100700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>92000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>107000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>113500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>103900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>84400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>100800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>89100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>85700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>65900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>59500</v>
+      </c>
+      <c r="F58" s="3">
         <v>59900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>56300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>53500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>51900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>85000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>51600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>48200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>40900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>39200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>36700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>35000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>34600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>35100</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>96900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>100200</v>
+      </c>
+      <c r="F59" s="3">
         <v>130900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>99700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>110100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>77200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>78300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>71000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>72200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>73800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>66900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>52900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>42400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>44000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>243600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>251600</v>
+      </c>
+      <c r="F60" s="3">
         <v>292300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>251100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>264200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>221200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>270300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>236100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>224300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>199100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>206900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>178800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>163000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>144500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>420900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>398100</v>
+      </c>
+      <c r="F61" s="3">
         <v>326700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>308100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>316100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>348500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>244300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>220600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>222800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>207100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>204400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>213500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>221300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>226900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>214100</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>135300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>133100</v>
+      </c>
+      <c r="F62" s="3">
         <v>117900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>131600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>118700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>64100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>49600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>38400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>36000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>35600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>46300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>53000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>47200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>51300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,52 +3325,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>799800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>782800</v>
+      </c>
+      <c r="F66" s="3">
         <v>736800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>690800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>699100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>633800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>564200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>495100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>483100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>441800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>457500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>445300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>431500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>422700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>412300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,52 +3595,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>260500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>251200</v>
+      </c>
+      <c r="F72" s="3">
         <v>245300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>259700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>242700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>231500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>225500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>213400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>198700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>186200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>163800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>169100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>168400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>166000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>165300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>208700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>205200</v>
+      </c>
+      <c r="F76" s="3">
         <v>197900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>237400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>220700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>209300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>204700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>192800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>179400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>168800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>146300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>151200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>151500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>147700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>145900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43925</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43372</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42917</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42826</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-8400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>20000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>17300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>9000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>15100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>17700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>10400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>24400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>2700</v>
-      </c>
-      <c r="N81" s="3">
-        <v>4300</v>
       </c>
       <c r="O81" s="3">
         <v>2700</v>
       </c>
       <c r="P81" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>2700</v>
+      </c>
+      <c r="R81" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,52 +4024,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>21600</v>
+      </c>
+      <c r="F83" s="3">
         <v>18800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>17400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>16900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>15000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>14000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>13200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>12200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>13300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>11800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>11500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>10300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>9900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,52 +4320,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F89" s="3">
         <v>40100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>44100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>47800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>21000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>30500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>27300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>16100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>13400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>23400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>21200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>25800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>7700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,52 +4394,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-35600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-14300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-10800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-12400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-22600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-24300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-7300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-16700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-13400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-15600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-17700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-18700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-32500</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,52 +4540,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-31200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-35600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-10300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-83900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-82500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-24500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-38200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-16200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-12700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-14900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-17500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-18000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,34 +4614,36 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-6000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-6100</v>
       </c>
       <c r="G96" s="3">
         <v>-3000</v>
       </c>
       <c r="H96" s="3">
-        <v>-3000</v>
+        <v>-6100</v>
       </c>
       <c r="I96" s="3">
         <v>-3000</v>
       </c>
       <c r="J96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="K96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="L96" s="3">
         <v>-2000</v>
@@ -4193,8 +4660,14 @@
       <c r="P96" s="3">
         <v>-2000</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="R96" s="3">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,136 +4810,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>70900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-8700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-8400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-37100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>67400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>52400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>20900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-9300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-8200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-7100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>10200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-1300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-1400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>1700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>600</v>
-      </c>
-      <c r="N101" s="3">
-        <v>300</v>
-      </c>
-      <c r="O101" s="3">
-        <v>300</v>
       </c>
       <c r="P101" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>300</v>
+      </c>
+      <c r="R101" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>3200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ULH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ULH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>ULH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,231 +666,257 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44016</v>
+      </c>
+      <c r="F7" s="2">
         <v>43925</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42826</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>365000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>258000</v>
+      </c>
+      <c r="F8" s="3">
         <v>382200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>375900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>375500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>383200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>377400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>386400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>374300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>365900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>335100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>314000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>313000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>305200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>284400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>264100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>271500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>266100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>186200</v>
+      </c>
+      <c r="F9" s="3">
         <v>278200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>273000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>275800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>272000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>270500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>283600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>273400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>265700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>248000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>230400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>230800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>223800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>206800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>192300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>197100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>98900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>71800</v>
+      </c>
+      <c r="F10" s="3">
         <v>104000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>102900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>99700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>111200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>106900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>102800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>100900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>100200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>87100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>83600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>82200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>81400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>77600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>71800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>74400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +935,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +987,14 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1043,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,58 +1099,70 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E15" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F15" s="3">
         <v>19500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>21600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>18800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>17400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>16900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>15000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>14000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>13200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>12200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>13300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>11800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>11500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>10300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>9900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1178,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>342900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>247100</v>
+      </c>
+      <c r="F17" s="3">
         <v>358300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>360400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>382800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>352500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>350900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>368500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>351800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>339700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>318000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>300900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>316500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>298800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>275300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>258200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>261500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>10900</v>
+      </c>
+      <c r="F18" s="3">
         <v>23900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>15500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-7300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>30700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>26500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>17900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>22500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>26200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>17100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>13100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-3500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>6400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>9100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>5900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,258 +1312,290 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
-      </c>
-      <c r="O20" s="3">
-        <v>500</v>
-      </c>
-      <c r="P20" s="3">
-        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>500</v>
       </c>
       <c r="R20" s="3">
+        <v>100</v>
+      </c>
+      <c r="S20" s="3">
+        <v>500</v>
+      </c>
+      <c r="T20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3">
         <v>39800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>37800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>11600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>48200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>44400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>31400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>38300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>39900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>28900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>26600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>9100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>18400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>19600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>16300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F22" s="3">
         <v>4200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>4500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>4100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>4100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>4400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>4800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>4300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>3000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>2600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>2200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>2500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>2500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>2300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>2000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F23" s="3">
         <v>16100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>11600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-11300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>26700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>23100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>11600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>20000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>23600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>14200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>11000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-5300</v>
-      </c>
-      <c r="O23" s="3">
-        <v>4400</v>
-      </c>
-      <c r="P23" s="3">
-        <v>7000</v>
       </c>
       <c r="Q23" s="3">
         <v>4400</v>
       </c>
       <c r="R23" s="3">
+        <v>7000</v>
+      </c>
+      <c r="S23" s="3">
+        <v>4400</v>
+      </c>
+      <c r="T23" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F24" s="3">
         <v>3900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>2900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-2800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>6700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>5800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>2600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>4900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>6000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>3700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>4800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-2000</v>
-      </c>
-      <c r="O24" s="3">
-        <v>1700</v>
-      </c>
-      <c r="P24" s="3">
-        <v>2700</v>
       </c>
       <c r="Q24" s="3">
         <v>1700</v>
       </c>
       <c r="R24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="S24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="T24" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1644,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F26" s="3">
         <v>12200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>8700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-8400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>20000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>17300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>9000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>15100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>17700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>10400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>6200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-3300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>2700</v>
-      </c>
-      <c r="P26" s="3">
-        <v>4300</v>
       </c>
       <c r="Q26" s="3">
         <v>2700</v>
       </c>
       <c r="R26" s="3">
+        <v>4300</v>
+      </c>
+      <c r="S26" s="3">
+        <v>2700</v>
+      </c>
+      <c r="T26" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F27" s="3">
         <v>12200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>8700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-8400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>20000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>17300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>9000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>15100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>17700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>10400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>6200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-3300</v>
-      </c>
-      <c r="O27" s="3">
-        <v>2700</v>
-      </c>
-      <c r="P27" s="3">
-        <v>4300</v>
       </c>
       <c r="Q27" s="3">
         <v>2700</v>
       </c>
       <c r="R27" s="3">
+        <v>4300</v>
+      </c>
+      <c r="S27" s="3">
+        <v>2700</v>
+      </c>
+      <c r="T27" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1812,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1728,14 +1850,14 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>18200</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>18200</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1746,8 +1868,14 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1924,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1980,126 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F32" s="3">
         <v>3600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-500</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>-500</v>
       </c>
       <c r="R32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F33" s="3">
         <v>12200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>8700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-8400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>20000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>17300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>9000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>15100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>17700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>10400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>24400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-3300</v>
-      </c>
-      <c r="O33" s="3">
-        <v>2700</v>
-      </c>
-      <c r="P33" s="3">
-        <v>4300</v>
       </c>
       <c r="Q33" s="3">
         <v>2700</v>
       </c>
       <c r="R33" s="3">
+        <v>4300</v>
+      </c>
+      <c r="S33" s="3">
+        <v>2700</v>
+      </c>
+      <c r="T33" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2148,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F35" s="3">
         <v>12200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>8700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-8400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>20000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>17300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>9000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>15100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>17700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>10400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>24400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-3300</v>
-      </c>
-      <c r="O35" s="3">
-        <v>2700</v>
-      </c>
-      <c r="P35" s="3">
-        <v>4300</v>
       </c>
       <c r="Q35" s="3">
         <v>2700</v>
       </c>
       <c r="R35" s="3">
+        <v>4300</v>
+      </c>
+      <c r="S35" s="3">
+        <v>2700</v>
+      </c>
+      <c r="T35" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44016</v>
+      </c>
+      <c r="F38" s="2">
         <v>43925</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42826</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2291,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,158 +2313,178 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E41" s="3">
         <v>8000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G41" s="3">
         <v>7700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>6500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>6500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>6300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>5700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2500</v>
-      </c>
-      <c r="K41" s="3">
-        <v>1700</v>
-      </c>
-      <c r="L41" s="3">
-        <v>2100</v>
       </c>
       <c r="M41" s="3">
         <v>1700</v>
       </c>
       <c r="N41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P41" s="3">
         <v>2900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E42" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F42" s="3">
         <v>6300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>9400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>9100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>9600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>10200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>9300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>10400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>12500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>11900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>15100</v>
-      </c>
-      <c r="N42" s="3">
-        <v>14600</v>
-      </c>
-      <c r="O42" s="3">
-        <v>14100</v>
       </c>
       <c r="P42" s="3">
         <v>14600</v>
       </c>
       <c r="Q42" s="3">
+        <v>14100</v>
+      </c>
+      <c r="R42" s="3">
+        <v>14600</v>
+      </c>
+      <c r="S42" s="3">
         <v>14400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>272300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>201500</v>
+      </c>
+      <c r="F43" s="3">
         <v>240500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>231300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>232200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>227100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>241100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>240400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>235600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>233900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>220500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>191200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>187400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>175000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>170900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>162700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>165100</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,108 +2533,126 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F45" s="3">
         <v>21200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>23400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>19000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>22000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>17800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>19800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>25800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>21100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>18900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>20600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>23200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>30500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>23600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>28700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>315200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>241900</v>
+      </c>
+      <c r="F46" s="3">
         <v>276000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>271800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>266800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>265200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>275500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>275300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>274400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>269100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>253500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>228700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>228100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>221600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>212500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>207500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>203600</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,108 +2701,126 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>459700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>438000</v>
+      </c>
+      <c r="F48" s="3">
         <v>446200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>427000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>397300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>386700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>384100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>303200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>298600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>284400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>272700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>267200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>263400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>260800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>255200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>246300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>236500</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>276800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>278000</v>
+      </c>
+      <c r="F49" s="3">
         <v>282100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>284600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>265400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>270500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>254100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>258900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>189900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>126000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>126800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>105700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>107000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>108200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>109900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>111700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>113500</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2869,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2925,70 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F52" s="3">
         <v>4200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>4600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>5300</v>
-      </c>
-      <c r="G52" s="3">
-        <v>5700</v>
-      </c>
-      <c r="H52" s="3">
-        <v>6100</v>
       </c>
       <c r="I52" s="3">
         <v>5700</v>
       </c>
       <c r="J52" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K52" s="3">
+        <v>5700</v>
+      </c>
+      <c r="L52" s="3">
         <v>6000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>8400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>9500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>9000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>5300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>5800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>5500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>5100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +3037,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1056900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>963400</v>
+      </c>
+      <c r="F54" s="3">
         <v>1008500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>988000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>934700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>928200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>919700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>843100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>769000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>687900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>662500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>610600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>603900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>596500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>583100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>570500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>558200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +3119,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,308 +3141,346 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>110800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>111700</v>
+      </c>
+      <c r="F57" s="3">
         <v>88800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>91900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>101500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>95100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>100700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>92000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>107000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>113500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>103900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>84400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>100800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>89100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>85700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>65900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>60100</v>
+      </c>
+      <c r="F58" s="3">
         <v>57900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>59500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>59900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>56300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>53500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>51900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>85000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>51600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>48200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>40900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>39200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>36700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>35000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>34600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>35100</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>101300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>97800</v>
+      </c>
+      <c r="F59" s="3">
         <v>96900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>100200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>130900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>99700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>110100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>77200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>78300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>71000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>72200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>73800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>66900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>52900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>42400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>44000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>273300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>269600</v>
+      </c>
+      <c r="F60" s="3">
         <v>243600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>251600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>292300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>251100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>264200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>221200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>270300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>236100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>224300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>199100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>206900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>178800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>163000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>144500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>405400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>343600</v>
+      </c>
+      <c r="F61" s="3">
         <v>420900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>398100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>326700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>308100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>316100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>348500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>244300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>220600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>222800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>207100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>204400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>213500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>221300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>226900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>214100</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>150500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>133700</v>
+      </c>
+      <c r="F62" s="3">
         <v>135300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>133100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>117900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>131600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>118700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>64100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>49600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>38400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>36000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>35600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>46300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>53000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>47200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>51300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3529,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3585,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3641,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>829200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>746900</v>
+      </c>
+      <c r="F66" s="3">
         <v>799800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>782800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>736800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>690800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>699100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>633800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>564200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>495100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>483100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>441800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>457500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>445300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>431500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>422700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>412300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3723,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3775,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3831,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3887,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3943,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>280200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>266700</v>
+      </c>
+      <c r="F72" s="3">
         <v>260500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>251200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>245300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>259700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>242700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>231500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>225500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>213400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>198700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>186200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>163800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>169100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>168400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>166000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>165300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +4055,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +4111,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +4167,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>227600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>216600</v>
+      </c>
+      <c r="F76" s="3">
         <v>208700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>205200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>197900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>237400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>220700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>209300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>204700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>192800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>179400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>168800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>146300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>151200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>151500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>147700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>145900</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4279,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44016</v>
+      </c>
+      <c r="F80" s="2">
         <v>43925</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42826</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F81" s="3">
         <v>12200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>8700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-8400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>20000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>17300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>9000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>15100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>17700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>10400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>24400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-3300</v>
-      </c>
-      <c r="O81" s="3">
-        <v>2700</v>
-      </c>
-      <c r="P81" s="3">
-        <v>4300</v>
       </c>
       <c r="Q81" s="3">
         <v>2700</v>
       </c>
       <c r="R81" s="3">
+        <v>4300</v>
+      </c>
+      <c r="S81" s="3">
+        <v>2700</v>
+      </c>
+      <c r="T81" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4422,66 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="3">
         <v>19500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>21600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>18800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>17400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>16900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>15000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>14000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>13200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>12200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>13300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>11800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>11500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>10300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>9900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4530,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4586,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4642,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4698,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4754,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="3">
         <v>25200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-3900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>40100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>44100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>47800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>21000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>30500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>27300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>16100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>13400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>23400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>21200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>25800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>7700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4836,66 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3">
         <v>-32800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-19000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-35600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-14300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-10800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-12400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-22600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-24300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-7300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-16700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-13400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-15600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-17700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-18700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-32500</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4944,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +5000,70 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="3">
         <v>-30900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-66000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-31200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-35600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-10300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-83900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-82500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-24500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-38200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-16200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-12700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-14900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-17500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-18000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,40 +5082,42 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-5700</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-6000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-6100</v>
       </c>
       <c r="I96" s="3">
         <v>-3000</v>
       </c>
       <c r="J96" s="3">
-        <v>-3000</v>
+        <v>-6100</v>
       </c>
       <c r="K96" s="3">
         <v>-3000</v>
       </c>
       <c r="L96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="M96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="N96" s="3">
         <v>-2000</v>
@@ -4666,8 +5134,14 @@
       <c r="R96" s="3">
         <v>-2000</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="T96" s="3">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +5190,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5246,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5302,178 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="3">
         <v>10400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>70900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-8700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-8400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-37100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>67400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>52400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>20900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-9300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-8200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>10200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="3">
         <v>-4400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-1300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-1400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>1700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>600</v>
-      </c>
-      <c r="P101" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>300</v>
       </c>
       <c r="R101" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>300</v>
+      </c>
+      <c r="T101" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>3200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ULH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ULH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>ULH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,258 +665,271 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43925</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42826</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>386000</v>
+      </c>
+      <c r="E8" s="3">
         <v>365000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>258000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>382200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>375900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>375500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>383200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>377400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>386400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>374300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>365900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>335100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>314000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>313000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>305200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>284400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>264100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>271500</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>281200</v>
+      </c>
+      <c r="E9" s="3">
         <v>266100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>186200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>278200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>273000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>275800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>272000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>270500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>283600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>273400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>265700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>248000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>230400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>230800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>223800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>206800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>192300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>197100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>104800</v>
+      </c>
+      <c r="E10" s="3">
         <v>98900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>71800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>104000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>102900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>99700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>111200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>106900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>102800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>100900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>100200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>87100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>83600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>82200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>81400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>77600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>71800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>74400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,8 +950,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -993,8 +1007,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,8 +1066,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1105,64 +1125,70 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E15" s="3">
         <v>16900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>18500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>19500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>21600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>18800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>17400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>16900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>15000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>14000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>13200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>12200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>13300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>11800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>11500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>10300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>9900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,120 +1206,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>362400</v>
+      </c>
+      <c r="E17" s="3">
         <v>342900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>247100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>358300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>360400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>382800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>352500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>350900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>368500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>351800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>339700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>318000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>316500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>298800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>275300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>258200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>261500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E18" s="3">
         <v>22100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>10900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>23900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>15500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>30700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>26500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>17900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>22500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>26200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>17100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>13100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>9100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,288 +1347,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>44200</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3">
         <v>39800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>37800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>11600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>48200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>44400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>31400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>38300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>39900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>28900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>26600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>18400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>19600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>16300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="E22" s="3">
         <v>3500</v>
       </c>
       <c r="F22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G22" s="3">
         <v>4200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4500</v>
-      </c>
-      <c r="H22" s="3">
-        <v>4100</v>
       </c>
       <c r="I22" s="3">
         <v>4100</v>
       </c>
       <c r="J22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K22" s="3">
         <v>4400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2200</v>
-      </c>
-      <c r="P22" s="3">
-        <v>2500</v>
       </c>
       <c r="Q22" s="3">
         <v>2500</v>
       </c>
       <c r="R22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="S22" s="3">
         <v>2300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E23" s="3">
         <v>18100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>8200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>16100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>11600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>26700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>23100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>11600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>20000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>23600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>14200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>11000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E24" s="3">
         <v>4500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,120 +1699,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E26" s="3">
         <v>13600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>6200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>12200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>20000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>17300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>9000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>15100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>17700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>10400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E27" s="3">
         <v>13600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>12200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>20000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>17300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>9000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>15100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>17700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>10400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1876,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1856,11 +1917,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>18200</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1874,8 +1935,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1994,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,120 +2053,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E33" s="3">
         <v>13600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>12200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>20000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>17300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>9000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>15100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>17700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>10400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>24400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2230,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E35" s="3">
         <v>13600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>12200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>20000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>17300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>9000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>15100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>17700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>10400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>24400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43925</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42826</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2378,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,199 +2401,209 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E41" s="3">
         <v>8700</v>
-      </c>
-      <c r="E41" s="3">
-        <v>8000</v>
       </c>
       <c r="F41" s="3">
         <v>8000</v>
       </c>
       <c r="G41" s="3">
+        <v>8000</v>
+      </c>
+      <c r="H41" s="3">
         <v>7700</v>
-      </c>
-      <c r="H41" s="3">
-        <v>6500</v>
       </c>
       <c r="I41" s="3">
         <v>6500</v>
       </c>
       <c r="J41" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K41" s="3">
         <v>6300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E42" s="3">
         <v>6700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>7200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>6300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>9400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>9100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>9600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>10200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>9300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>10400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>12500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>11900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>15100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>14600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>14100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>14600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>14400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>282800</v>
+      </c>
+      <c r="E43" s="3">
         <v>272300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>201500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>240500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>231300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>232200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>227100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>241100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>240400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>235600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>233900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>220500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>191200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>187400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>175000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>170900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>162700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>165100</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>8300</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2539,120 +2635,129 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E45" s="3">
         <v>27500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>25200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>21200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>23400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>22000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>17800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>25800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>21100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>18900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>20600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>23200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>30500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>23600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>28700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>321500</v>
+      </c>
+      <c r="E46" s="3">
         <v>315200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>241900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>276000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>271800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>266800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>265200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>275500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>275300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>274400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>269100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>253500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>228700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>228100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>221600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>212500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>207500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>203600</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2707,120 +2812,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>462600</v>
+      </c>
+      <c r="E48" s="3">
         <v>459700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>438000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>446200</v>
       </c>
-      <c r="G48" s="3">
-        <v>427000</v>
-      </c>
       <c r="H48" s="3">
+        <v>434500</v>
+      </c>
+      <c r="I48" s="3">
         <v>397300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>386700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>384100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>303200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>298600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>284400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>272700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>267200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>263400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>260800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>255200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>246300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>236500</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>273000</v>
+      </c>
+      <c r="E49" s="3">
         <v>276800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>278000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>282100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>284600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>265400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>270500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>254100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>258900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>189900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>126000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>126800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>105700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>107000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>108200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>109900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>111700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>113500</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2989,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,64 +3048,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E52" s="3">
         <v>5300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,64 +3166,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1063000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1056900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>963400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1008500</v>
       </c>
-      <c r="G54" s="3">
-        <v>988000</v>
-      </c>
       <c r="H54" s="3">
+        <v>995400</v>
+      </c>
+      <c r="I54" s="3">
         <v>934700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>928200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>919700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>843100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>769000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>687900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>662500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>610600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>603900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>596500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>583100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>570500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>558200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3250,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,344 +3273,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>97900</v>
+      </c>
+      <c r="E57" s="3">
         <v>110800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>111700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>88800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>91900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>101500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>95100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>100700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>92000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>107000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>113500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>103900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>84400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>100800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>89100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>85700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>65900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>59700</v>
+      </c>
+      <c r="E58" s="3">
         <v>61200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>60100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>57900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>59500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>59900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>56300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>53500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>51900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>85000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>51600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>48200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>40900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>39200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>36700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>35000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>34600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>35100</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>115200</v>
+      </c>
+      <c r="E59" s="3">
         <v>101300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>97800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>96900</v>
       </c>
-      <c r="G59" s="3">
-        <v>100200</v>
-      </c>
       <c r="H59" s="3">
+        <v>106000</v>
+      </c>
+      <c r="I59" s="3">
         <v>130900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>99700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>110100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>77200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>78300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>71000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>72200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>73800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>66900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>52900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>42400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>44000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>272800</v>
+      </c>
+      <c r="E60" s="3">
         <v>273300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>269600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>243600</v>
       </c>
-      <c r="G60" s="3">
-        <v>251600</v>
-      </c>
       <c r="H60" s="3">
+        <v>250400</v>
+      </c>
+      <c r="I60" s="3">
         <v>292300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>251100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>264200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>221200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>270300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>236100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>224300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>199100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>206900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>178800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>163000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>144500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>400400</v>
+      </c>
+      <c r="E61" s="3">
         <v>405400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>343600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>420900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>398100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>326700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>308100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>316100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>348500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>244300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>220600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>222800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>207100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>204400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>213500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>221300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>226900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>214100</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>150300</v>
+      </c>
+      <c r="E62" s="3">
         <v>150500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>133700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>135300</v>
       </c>
-      <c r="G62" s="3">
-        <v>133100</v>
-      </c>
       <c r="H62" s="3">
+        <v>141700</v>
+      </c>
+      <c r="I62" s="3">
         <v>117900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>131600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>118700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>64100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>49600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>38400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>36000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>35600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>46300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>53000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>47200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>51300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3684,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3743,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,64 +3802,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>823500</v>
+      </c>
+      <c r="E66" s="3">
         <v>829200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>746900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>799800</v>
       </c>
-      <c r="G66" s="3">
-        <v>782800</v>
-      </c>
       <c r="H66" s="3">
+        <v>790200</v>
+      </c>
+      <c r="I66" s="3">
         <v>736800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>690800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>699100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>633800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>564200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>495100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>483100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>441800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>457500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>445300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>431500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>422700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>412300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3886,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3943,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4002,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4061,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,64 +4120,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>293600</v>
+      </c>
+      <c r="E72" s="3">
         <v>280200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>266700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>260500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>251200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>245300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>259700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>242700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>231500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>225500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>213400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>198700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>186200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>163800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>169100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>168400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>166000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>165300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4238,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4297,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,64 +4356,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>239600</v>
+      </c>
+      <c r="E76" s="3">
         <v>227600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>216600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>208700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>205200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>197900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>237400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>220700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>209300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>204700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>192800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>179400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>168800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>146300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>151200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>151500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>147700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>145900</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4474,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43925</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42826</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E81" s="3">
         <v>13600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>12200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>20000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>17300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>9000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>15100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>17700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>10400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>24400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,64 +4622,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
+      <c r="D83" s="3">
+        <v>19200</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="3">
         <v>19500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>21600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>18800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>17400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>16900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>15000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>14000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>13200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>13300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>11500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>10300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>9900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4738,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4797,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4856,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4915,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +4974,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>8</v>
+      <c r="D89" s="3">
+        <v>21600</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="3">
         <v>25200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>40100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>44100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>47800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>21000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>30500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>27300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>16100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>13400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>23400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>21200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>25800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>7700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,64 +5058,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>-17900</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="3">
         <v>-32800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-35600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-14300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-22600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-24300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-16700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-15600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-17700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-18700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-32500</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5174,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,64 +5233,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="3">
+        <v>-15000</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="3">
         <v>-30900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-66000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-31200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-35600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-83900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-82500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-24500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-38200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-16200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-12700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-14900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-17500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-18000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5317,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5096,22 +5330,22 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-5700</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-6000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-3000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-6100</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-3000</v>
       </c>
       <c r="L96" s="3">
         <v>-3000</v>
@@ -5120,7 +5354,7 @@
         <v>-3000</v>
       </c>
       <c r="N96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="O96" s="3">
         <v>-2000</v>
@@ -5140,8 +5374,11 @@
       <c r="T96" s="3">
         <v>-2000</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5433,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5492,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,111 +5551,117 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
+      <c r="D100" s="3">
+        <v>-6800</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" s="3">
         <v>10400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>70900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-8700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-8400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-37100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>67400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>52400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>20900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-8200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-7100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>10200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>8</v>
+      <c r="D101" s="3">
+        <v>300</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="3">
         <v>-4400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>600</v>
-      </c>
-      <c r="R101" s="3">
-        <v>300</v>
       </c>
       <c r="S101" s="3">
         <v>300</v>
@@ -5420,60 +5669,66 @@
       <c r="T101" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3">
+        <v>100</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ULH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ULH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>ULH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,271 +665,284 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44107</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44016</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43925</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42826</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>415200</v>
+      </c>
+      <c r="E8" s="3">
         <v>386000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>365000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>258000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>382200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>375900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>375500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>383200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>377400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>386400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>374300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>365900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>335100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>314000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>313000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>305200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>284400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>264100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>271500</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>296900</v>
+      </c>
+      <c r="E9" s="3">
         <v>281200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>266100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>186200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>278200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>273000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>275800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>272000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>270500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>283600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>273400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>265700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>248000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>230400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>230800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>223800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>206800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>192300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>197100</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>118300</v>
+      </c>
+      <c r="E10" s="3">
         <v>104800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>98900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>71800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>104000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>102900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>99700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>111200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>106900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>102800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>100900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>100200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>87100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>83600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>82200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>81400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>77600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>71800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>74400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -951,8 +964,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1010,8 +1024,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1069,8 +1086,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1128,67 +1148,73 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E15" s="3">
         <v>19200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>16900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>18500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>19500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>21600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>18800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>17400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>16900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>15000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>14000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>13200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>12200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>13300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>11800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>11500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>10300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>9900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1207,126 +1233,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>384100</v>
+      </c>
+      <c r="E17" s="3">
         <v>362400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>342900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>247100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>358300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>360400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>382800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>352500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>350900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>368500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>351800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>339700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>318000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>300900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>316500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>298800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>275300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>258200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>261500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E18" s="3">
         <v>23600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>22100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>23900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>15500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>30700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>26500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>17900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>22500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>26200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>17100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>13100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>9100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>5900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1348,303 +1381,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="3">
         <v>1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>51300</v>
+      </c>
+      <c r="E21" s="3">
         <v>44200</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3">
         <v>39800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>37800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>11600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>48200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>44400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>31400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>38300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>39900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>28900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>26600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>9100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>18400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>19600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>16300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E22" s="3">
         <v>3400</v>
-      </c>
-      <c r="E22" s="3">
-        <v>3500</v>
       </c>
       <c r="F22" s="3">
         <v>3500</v>
       </c>
       <c r="G22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H22" s="3">
         <v>4200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>4100</v>
       </c>
       <c r="J22" s="3">
         <v>4100</v>
       </c>
       <c r="K22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L22" s="3">
         <v>4400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2200</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>2500</v>
       </c>
       <c r="R22" s="3">
         <v>2500</v>
       </c>
       <c r="S22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="T22" s="3">
         <v>2300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E23" s="3">
         <v>21500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>18100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>16100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>11600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>26700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>23100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>11600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>20000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>23600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>14200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>11000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E24" s="3">
         <v>5300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-2000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1702,126 +1751,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E26" s="3">
         <v>16200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>13600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>12200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>20000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>17300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>9000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>15100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>17700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>10400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E27" s="3">
         <v>16200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>13600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>12200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>20000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>17300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>9000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>15100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>17700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>10400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1879,31 +1937,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1920,11 +1981,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>18200</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1938,8 +1999,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1997,8 +2061,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2056,126 +2123,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E33" s="3">
         <v>16200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>13600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>12200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>20000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>17300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>15100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>17700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>10400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>24400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2233,131 +2309,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E35" s="3">
         <v>16200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>13600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>12200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>20000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>17300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>15100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>17700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>10400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>24400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44107</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44016</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43925</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42917</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42826</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2379,8 +2464,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2402,193 +2488,203 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E41" s="3">
         <v>8800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8700</v>
-      </c>
-      <c r="F41" s="3">
-        <v>8000</v>
       </c>
       <c r="G41" s="3">
         <v>8000</v>
       </c>
       <c r="H41" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I41" s="3">
         <v>7700</v>
-      </c>
-      <c r="I41" s="3">
-        <v>6500</v>
       </c>
       <c r="J41" s="3">
         <v>6500</v>
       </c>
       <c r="K41" s="3">
+        <v>6500</v>
+      </c>
+      <c r="L41" s="3">
         <v>6300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E42" s="3">
         <v>6500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>6700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>7200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>6300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>9400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>9100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>9600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>10200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>9300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>10400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>12500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>11900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>15100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>14600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>14100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>14600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>14400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>289400</v>
+      </c>
+      <c r="E43" s="3">
         <v>282800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>272300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>201500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>240500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>231300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>232200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>227100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>241100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>240400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>235600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>233900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>220500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>191200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>187400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>175000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>170900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>162700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>165100</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="3">
         <v>8300</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>8</v>
@@ -2605,8 +2701,8 @@
       <c r="J44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2638,126 +2734,135 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E45" s="3">
         <v>15200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>27500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>25200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>21200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>23400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>22000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>17800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>19800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>25800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>21100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>18900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>20600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>23200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>30500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>23600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>28700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>329900</v>
+      </c>
+      <c r="E46" s="3">
         <v>321500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>315200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>241900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>276000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>271800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>266800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>265200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>275500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>275300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>274400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>269100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>253500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>228700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>228100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>221600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>212500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>207500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>203600</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2815,126 +2920,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>448200</v>
+      </c>
+      <c r="E48" s="3">
         <v>462600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>459700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>438000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>446200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>434500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>397300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>386700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>384100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>303200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>298600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>284400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>272700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>267200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>263400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>260800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>255200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>246300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>236500</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>269500</v>
+      </c>
+      <c r="E49" s="3">
         <v>273000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>276800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>278000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>282100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>284600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>265400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>270500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>254100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>258900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>189900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>126000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>126800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>105700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>107000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>108200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>109900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>111700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>113500</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2992,8 +3106,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3051,67 +3168,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E52" s="3">
         <v>5900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3169,67 +3292,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1054700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1063000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1056900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>963400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1008500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>995400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>934700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>928200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>919700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>843100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>769000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>687900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>662500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>610600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>603900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>596500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>583100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>570500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>558200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3251,8 +3380,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3274,362 +3404,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>98600</v>
+      </c>
+      <c r="E57" s="3">
         <v>97900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>110800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>111700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>88800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>91900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>101500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>95100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>92000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>107000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>113500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>103900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>84400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>100800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>89100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>85700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>65900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E58" s="3">
         <v>59700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>61200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>60100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>57900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>59500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>59900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>56300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>53500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>51900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>85000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>51600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>48200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>40900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>39200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>36700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>35000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>34600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>35100</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>120300</v>
+      </c>
+      <c r="E59" s="3">
         <v>115200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>101300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>97800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>96900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>106000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>130900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>99700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>110100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>77200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>78300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>71000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>72200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>73800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>66900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>52900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>42400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>44000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>278900</v>
+      </c>
+      <c r="E60" s="3">
         <v>272800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>273300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>269600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>243600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>250400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>292300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>251100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>264200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>221200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>270300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>236100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>224300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>199100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>206900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>178800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>163000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>144500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>369000</v>
+      </c>
+      <c r="E61" s="3">
         <v>400400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>405400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>343600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>420900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>398100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>326700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>308100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>316100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>348500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>244300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>220600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>222800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>207100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>204400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>213500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>221300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>226900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>214100</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>147000</v>
+      </c>
+      <c r="E62" s="3">
         <v>150300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>150500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>133700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>135300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>141700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>117900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>131600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>118700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>64100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>49600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>38400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>36000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>35600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>46300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>53000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>47200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>51300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3687,8 +3836,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3746,8 +3898,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3805,67 +3960,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>794900</v>
+      </c>
+      <c r="E66" s="3">
         <v>823500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>829200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>746900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>799800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>790200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>736800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>690800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>699100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>633800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>564200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>495100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>483100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>441800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>457500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>445300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>431500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>422700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>412300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3887,8 +4048,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3946,8 +4108,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4005,8 +4170,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4064,8 +4232,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4123,67 +4294,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>312500</v>
+      </c>
+      <c r="E72" s="3">
         <v>293600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>280200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>266700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>260500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>251200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>245300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>259700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>242700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>231500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>225500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>213400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>198700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>186200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>163800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>169100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>168400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>166000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>165300</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4241,8 +4418,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4300,8 +4480,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4359,67 +4542,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>259800</v>
+      </c>
+      <c r="E76" s="3">
         <v>239600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>227600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>216600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>208700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>205200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>197900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>237400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>220700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>209300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>204700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>192800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>179400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>168800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>146300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>151200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>151500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>147700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>145900</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4477,131 +4666,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44107</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44016</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43925</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42917</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42826</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E81" s="3">
         <v>16200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>13600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>12200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>20000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>17300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>15100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>17700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>10400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>24400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4623,67 +4821,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E83" s="3">
         <v>19200</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="3">
         <v>19500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>21600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>18800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>17400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>16900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>15000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>14000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>13200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>13300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>11800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>11500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>10300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>9900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4741,8 +4943,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4800,8 +5005,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4859,8 +5067,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4918,8 +5129,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4977,67 +5191,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E89" s="3">
         <v>21600</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="3">
         <v>25200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>40100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>44100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>47800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>21000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>30500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>27300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>16100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>13400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>23400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>21200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>25800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>7700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5059,67 +5279,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-17900</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3">
         <v>-32800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-35600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-14300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-12400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-22600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-24300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-16700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-13400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-15600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-17700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-18700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-32500</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5177,8 +5401,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5236,67 +5463,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-15000</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="3">
         <v>-30900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-66000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-31200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-35600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-83900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-82500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-24500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-38200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-16200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-12700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-14900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-17500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-18000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5318,13 +5551,14 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-5700</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -5333,22 +5567,22 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-5700</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-6000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-3000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-6100</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-3000</v>
       </c>
       <c r="M96" s="3">
         <v>-3000</v>
@@ -5357,7 +5591,7 @@
         <v>-3000</v>
       </c>
       <c r="O96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="P96" s="3">
         <v>-2000</v>
@@ -5377,8 +5611,11 @@
       <c r="U96" s="3">
         <v>-2000</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5436,8 +5673,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5495,8 +5735,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5554,117 +5797,123 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-36900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-6800</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="3">
         <v>10400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>70900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-8700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-8400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-37100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>67400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>52400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>20900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-9300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-8200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-7100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>10200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="3">
         <v>-4400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>600</v>
-      </c>
-      <c r="S101" s="3">
-        <v>300</v>
       </c>
       <c r="T101" s="3">
         <v>300</v>
@@ -5672,63 +5921,69 @@
       <c r="U101" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ULH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ULH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>ULH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,284 +665,296 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E7" s="2">
         <v>44289</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44107</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44016</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43925</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43372</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42917</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42826</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>422800</v>
+      </c>
+      <c r="E8" s="3">
         <v>415200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>386000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>365000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>258000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>382200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>375900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>375500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>383200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>377400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>386400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>374300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>365900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>335100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>314000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>313000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>305200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>284400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>264100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>271500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>309000</v>
+      </c>
+      <c r="E9" s="3">
         <v>296900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>281200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>266100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>186200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>278200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>273000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>275800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>272000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>270500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>283600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>273400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>265700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>248000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>230400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>230800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>223800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>206800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>192300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>197100</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>113800</v>
+      </c>
+      <c r="E10" s="3">
         <v>118300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>104800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>98900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>71800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>104000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>102900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>99700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>111200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>106900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>102800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>100900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>100200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>87100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>83600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>82200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>81400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>77600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>71800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>74400</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1027,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1089,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1151,70 +1170,76 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E15" s="3">
         <v>19100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>19200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>16900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>18500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>19500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>21600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>18800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>17400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>16900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>15000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>14000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>13200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>12200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>13300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>11800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>11500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>10300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>9900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1234,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>391500</v>
+      </c>
+      <c r="E17" s="3">
         <v>384100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>362400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>342900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>247100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>358300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>360400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>382800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>352500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>350900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>368500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>351800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>339700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>318000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>300900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>316500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>298800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>275300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>258200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>261500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E18" s="3">
         <v>31100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>23600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>22100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>10900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>23900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>15500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>30700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>26500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>17900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>22500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>26200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>17100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>13100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>9100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>5900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1382,318 +1414,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>53700</v>
+      </c>
+      <c r="E21" s="3">
         <v>51300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>44200</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3">
         <v>39800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>37800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>11600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>48200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>44400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>31400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>38300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>39900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>28900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>26600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>9100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>18400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>19600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>16300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E22" s="3">
         <v>3200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>3500</v>
       </c>
       <c r="G22" s="3">
         <v>3500</v>
       </c>
       <c r="H22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I22" s="3">
         <v>4200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4500</v>
-      </c>
-      <c r="J22" s="3">
-        <v>4100</v>
       </c>
       <c r="K22" s="3">
         <v>4100</v>
       </c>
       <c r="L22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="M22" s="3">
         <v>4400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2200</v>
-      </c>
-      <c r="R22" s="3">
-        <v>2500</v>
       </c>
       <c r="S22" s="3">
         <v>2500</v>
       </c>
       <c r="T22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="U22" s="3">
         <v>2300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E23" s="3">
         <v>29000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>21500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>18100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>16100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>11600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>26700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>23100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>11600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>20000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>23600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>14200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>11000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>7000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E24" s="3">
         <v>7300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-2000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1754,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E26" s="3">
         <v>21700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>16200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>13600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>12200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>20000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>17300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>15100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>17700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>10400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E27" s="3">
         <v>21700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>16200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>13600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>12200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>20000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>17300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>15100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>17700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>10400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1940,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1966,8 +2026,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1984,11 +2044,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>18200</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2002,8 +2062,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2064,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2126,132 +2192,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E33" s="3">
         <v>21700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>16200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>13600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>12200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>8700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>20000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>17300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>15100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>17700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>10400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>24400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2312,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E35" s="3">
         <v>21700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>16200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>13600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>12200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>8700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>20000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>17300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>15100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>17700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>10400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>24400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E38" s="2">
         <v>44289</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44107</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44016</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43925</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43372</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42917</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42826</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2465,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2489,205 +2574,215 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E41" s="3">
         <v>10800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8700</v>
-      </c>
-      <c r="G41" s="3">
-        <v>8000</v>
       </c>
       <c r="H41" s="3">
         <v>8000</v>
       </c>
       <c r="I41" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J41" s="3">
         <v>7700</v>
-      </c>
-      <c r="J41" s="3">
-        <v>6500</v>
       </c>
       <c r="K41" s="3">
         <v>6500</v>
       </c>
       <c r="L41" s="3">
+        <v>6500</v>
+      </c>
+      <c r="M41" s="3">
         <v>6300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E42" s="3">
         <v>7500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>6500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>6700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>7200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>6300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>9400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>9100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>9600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>10200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>9300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>10400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>12500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>11900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>15100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>14600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>14100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>14600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>14400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>312500</v>
+      </c>
+      <c r="E43" s="3">
         <v>289400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>282800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>272300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>201500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>240500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>231300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>232200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>227100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>241100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>240400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>235600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>233900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>220500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>191200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>187400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>175000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>170900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>162700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>165100</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="3">
         <v>8300</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>8</v>
@@ -2704,8 +2799,8 @@
       <c r="K44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2737,132 +2832,141 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E45" s="3">
         <v>22100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>27500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>25200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>21200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>23400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>22000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>17800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>19800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>25800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>21100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>18900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>20600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>23200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>30500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>23600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>28700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>359200</v>
+      </c>
+      <c r="E46" s="3">
         <v>329900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>321500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>315200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>241900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>276000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>271800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>266800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>265200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>275500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>275300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>274400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>269100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>253500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>228700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>228100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>221600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>212500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>207500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>203600</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2923,132 +3027,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>450700</v>
+      </c>
+      <c r="E48" s="3">
         <v>448200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>462600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>459700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>438000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>446200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>434500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>397300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>386700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>384100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>303200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>298600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>284400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>272700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>267200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>263400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>260800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>255200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>246300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>236500</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>266000</v>
+      </c>
+      <c r="E49" s="3">
         <v>269500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>273000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>276800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>278000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>282100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>284600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>265400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>270500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>254100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>258900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>189900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>126000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>126800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>105700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>107000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>108200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>109900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>111700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>113500</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3109,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3171,70 +3287,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E52" s="3">
         <v>7100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3295,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1082200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1054700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1063000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1056900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>963400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1008500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>995400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>934700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>928200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>919700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>843100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>769000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>687900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>662500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>610600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>603900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>596500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>583100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>570500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>558200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3381,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3405,70 +3534,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>104300</v>
+      </c>
+      <c r="E57" s="3">
         <v>98600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>97900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>110800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>111700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>88800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>91900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>101500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>95100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>100700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>92000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>107000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>113500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>103900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>84400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>100800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>89100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>85700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>65900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3476,309 +3609,324 @@
         <v>60000</v>
       </c>
       <c r="E58" s="3">
+        <v>60000</v>
+      </c>
+      <c r="F58" s="3">
         <v>59700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>61200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>60100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>57900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>59500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>59900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>56300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>53500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>51900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>85000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>51600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>48200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>40900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>39200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>36700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>35000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>34600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>35100</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>110900</v>
+      </c>
+      <c r="E59" s="3">
         <v>120300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>115200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>101300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>97800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>96900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>106000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>130900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>99700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>110100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>77200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>78300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>71000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>72200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>73800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>66900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>52900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>42400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>44000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>275200</v>
+      </c>
+      <c r="E60" s="3">
         <v>278900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>272800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>273300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>269600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>243600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>250400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>292300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>251100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>264200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>221200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>270300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>236100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>224300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>199100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>206900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>178800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>163000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>144500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>372100</v>
+      </c>
+      <c r="E61" s="3">
         <v>369000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>400400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>405400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>343600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>420900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>398100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>326700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>308100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>316100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>348500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>244300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>220600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>222800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>207100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>204400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>213500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>221300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>226900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>214100</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E62" s="3">
         <v>147000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>150300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>150500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>133700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>135300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>141700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>117900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>131600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>118700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>64100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>49600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>38400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>36000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>35600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>46300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>53000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>47200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>51300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3839,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3901,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3963,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>800300</v>
+      </c>
+      <c r="E66" s="3">
         <v>794900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>823500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>829200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>746900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>799800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>790200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>736800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>690800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>699100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>633800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>564200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>495100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>483100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>441800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>457500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>445300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>431500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>422700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>412300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4049,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4111,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4173,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4235,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4297,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>335300</v>
+      </c>
+      <c r="E72" s="3">
         <v>312500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>293600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>280200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>266700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>260500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>251200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>245300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>259700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>242700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>231500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>225500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>213400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>198700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>186200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>163800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>169100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>168400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>166000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>165300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4421,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4483,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4545,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>281900</v>
+      </c>
+      <c r="E76" s="3">
         <v>259800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>239600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>227600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>216600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>208700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>205200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>197900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>237400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>220700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>209300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>204700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>192800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>179400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>168800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>146300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>151200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>151500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>147700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>145900</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4669,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E80" s="2">
         <v>44289</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44107</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44016</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43925</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43372</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42917</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42826</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E81" s="3">
         <v>21700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>16200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>13600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>12200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>8700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>20000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>17300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>15100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>17700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>10400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>24400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4822,70 +5019,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E83" s="3">
         <v>19100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>19200</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="3">
         <v>19500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>21600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>18800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>17400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>16900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>15000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>14000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>13200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>12200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>13300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>11800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>11500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>10300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>9900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4946,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5008,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5070,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5132,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5194,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E89" s="3">
         <v>43100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>21600</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="3">
         <v>25200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>40100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>44100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>47800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>21000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>30500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>27300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>16100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>13400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>23400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>21200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>25800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>7700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5280,70 +5499,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-17900</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3">
         <v>-32800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-19000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-35600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-14300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-12400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-22600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-24300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-16700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-13400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-15600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-17700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-18700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-32500</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5404,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5466,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-15000</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="3">
         <v>-30900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-66000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-31200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-35600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-10300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-83900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-82500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-24500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-38200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-16200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-12700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-14900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-17500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-18000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5552,17 +5784,18 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-5700</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -5570,22 +5803,22 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-5700</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-6000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-6100</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-3000</v>
       </c>
       <c r="N96" s="3">
         <v>-3000</v>
@@ -5594,7 +5827,7 @@
         <v>-3000</v>
       </c>
       <c r="P96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="Q96" s="3">
         <v>-2000</v>
@@ -5614,8 +5847,11 @@
       <c r="V96" s="3">
         <v>-2000</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5676,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5738,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5800,123 +6042,129 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-36900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6800</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="3">
         <v>10400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>70900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-8700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-37100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>67400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>52400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>20900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-9300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-8200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-7100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>10200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>300</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="3">
         <v>-4400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>600</v>
-      </c>
-      <c r="T101" s="3">
-        <v>300</v>
       </c>
       <c r="U101" s="3">
         <v>300</v>
@@ -5924,66 +6172,72 @@
       <c r="V101" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E102" s="3">
         <v>2000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ULH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ULH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>ULH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,308 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E7" s="2">
         <v>44380</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44289</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44107</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44016</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43925</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43372</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42917</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42826</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>445600</v>
+      </c>
+      <c r="E8" s="3">
         <v>422800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>415200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>386000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>365000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>258000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>382200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>375900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>375500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>383200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>377400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>386400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>374300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>365900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>335100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>314000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>313000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>305200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>284400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>264100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>271500</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>331300</v>
+      </c>
+      <c r="E9" s="3">
         <v>309000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>296900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>281200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>266100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>186200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>278200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>273000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>275800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>272000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>270500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>283600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>273400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>265700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>248000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>230400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>230800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>223800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>206800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>192300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>197100</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>114300</v>
+      </c>
+      <c r="E10" s="3">
         <v>113800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>118300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>104800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>98900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>71800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>104000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>102900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>99700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>111200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>106900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>102800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>100900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>100200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>87100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>83600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>82200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>81400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>77600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>71800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>74400</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1043,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1173,73 +1192,79 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E15" s="3">
         <v>16300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>19100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>19200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>16900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>18500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>19500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>21600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>18800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>17400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>16900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>15000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>14000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>13200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>12200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>13300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>11800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>11500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>10300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>9900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>428900</v>
+      </c>
+      <c r="E17" s="3">
         <v>391500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>384100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>362400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>342900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>247100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>358300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>360400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>382800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>352500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>350900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>368500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>351800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>339700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>318000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>316500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>298800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>275300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>258200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>261500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E18" s="3">
         <v>31300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>31100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>23600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>22100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>10900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>23900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>15500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>30700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>26500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>17900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>22500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>26200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>17100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>13100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>9100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>5900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>6100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E21" s="3">
         <v>53700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>51300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>44200</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3">
         <v>39800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>37800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>48200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>44400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>31400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>38300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>39900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>28900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>26600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>9100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>18400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>19600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>16300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E22" s="3">
         <v>2900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>3500</v>
       </c>
       <c r="H22" s="3">
         <v>3500</v>
       </c>
       <c r="I22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J22" s="3">
         <v>4200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4500</v>
-      </c>
-      <c r="K22" s="3">
-        <v>4100</v>
       </c>
       <c r="L22" s="3">
         <v>4100</v>
       </c>
       <c r="M22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="N22" s="3">
         <v>4400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2200</v>
-      </c>
-      <c r="S22" s="3">
-        <v>2500</v>
       </c>
       <c r="T22" s="3">
         <v>2500</v>
       </c>
       <c r="U22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="V22" s="3">
         <v>2300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E23" s="3">
         <v>34500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>29000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>21500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>18100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>16100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>11600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>26700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>23100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>11600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>20000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>23600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>14200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>11000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>7000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E24" s="3">
         <v>8900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-2000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E26" s="3">
         <v>25600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>21700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>16200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>13600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>12200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>20000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>17300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>9000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>15100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>17700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>10400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E27" s="3">
         <v>25600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>21700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>16200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>13600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>12200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>20000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>17300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>9000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>15100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>17700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>10400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2029,8 +2089,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2047,11 +2107,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>18200</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2065,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E33" s="3">
         <v>25600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>21700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>16200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>13600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>12200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>20000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>17300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>9000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>15100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>17700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>10400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>24400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E35" s="3">
         <v>25600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>21700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>16200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>13600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>12200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>20000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>17300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>9000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>15100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>17700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>10400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>24400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E38" s="2">
         <v>44380</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44289</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44107</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44016</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43925</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43372</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42917</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42826</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,203 +2660,213 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E41" s="3">
         <v>13100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8700</v>
-      </c>
-      <c r="H41" s="3">
-        <v>8000</v>
       </c>
       <c r="I41" s="3">
         <v>8000</v>
       </c>
       <c r="J41" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K41" s="3">
         <v>7700</v>
-      </c>
-      <c r="K41" s="3">
-        <v>6500</v>
       </c>
       <c r="L41" s="3">
         <v>6500</v>
       </c>
       <c r="M41" s="3">
+        <v>6500</v>
+      </c>
+      <c r="N41" s="3">
         <v>6300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E42" s="3">
         <v>7900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>7500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>6500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>6700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>7200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>6300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>9400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>9100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>9600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>10200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>9300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>10400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>12500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>11900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>15100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>14600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>14100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>14600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>14400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>351500</v>
+      </c>
+      <c r="E43" s="3">
         <v>312500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>289400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>282800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>272300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>201500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>240500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>231300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>232200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>227100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>241100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>240400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>235600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>233900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>220500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>191200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>187400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>175000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>170900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>162700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>165100</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2781,11 +2876,11 @@
       <c r="E44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3">
         <v>8300</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>8</v>
@@ -2802,8 +2897,8 @@
       <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2835,138 +2930,147 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E45" s="3">
         <v>25600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>22100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>27500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>25200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>21200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>23400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>22000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>17800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>19800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>25800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>21100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>18900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>20600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>23200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>30500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>23600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>28700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>396100</v>
+      </c>
+      <c r="E46" s="3">
         <v>359200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>329900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>321500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>315200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>241900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>276000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>271800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>266800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>265200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>275500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>275300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>274400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>269100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>253500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>228700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>228100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>221600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>212500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>207500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>203600</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3030,138 +3134,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>456300</v>
+      </c>
+      <c r="E48" s="3">
         <v>450700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>448200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>462600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>459700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>438000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>446200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>434500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>397300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>386700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>384100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>303200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>298600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>284400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>272700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>267200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>263400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>260800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>255200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>246300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>236500</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>262500</v>
+      </c>
+      <c r="E49" s="3">
         <v>266000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>269500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>273000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>276800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>278000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>282100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>284600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>265400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>270500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>254100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>258900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>189900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>126000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>126800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>105700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>107000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>108200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>109900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>111700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>113500</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E52" s="3">
         <v>6400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1121000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1082200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1054700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1063000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1056900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>963400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1008500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>995400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>934700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>928200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>919700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>843100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>769000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>687900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>662500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>610600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>603900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>596500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>583100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>570500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>558200</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>112900</v>
+      </c>
+      <c r="E57" s="3">
         <v>104300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>98600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>97900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>110800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>111700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>88800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>91900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>101500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>95100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>100700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>92000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>107000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>113500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>103900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>84400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>100800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>89100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>85700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>65900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>60000</v>
+        <v>60600</v>
       </c>
       <c r="E58" s="3">
         <v>60000</v>
       </c>
       <c r="F58" s="3">
+        <v>60000</v>
+      </c>
+      <c r="G58" s="3">
         <v>59700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>61200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>60100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>57900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>59500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>59900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>56300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>53500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>51900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>85000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>51600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>48200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>40900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>39200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>36700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>35000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>34600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>35100</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>113000</v>
+      </c>
+      <c r="E59" s="3">
         <v>110900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>120300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>115200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>101300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>97800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>96900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>106000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>130900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>99700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>110100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>77200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>78300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>71000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>72200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>73800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>66900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>52900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>42400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>44000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>286400</v>
+      </c>
+      <c r="E60" s="3">
         <v>275200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>278900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>272800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>273300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>269600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>243600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>250400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>292300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>251100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>264200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>221200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>270300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>236100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>224300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>199100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>206900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>178800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>163000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>144500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>383000</v>
+      </c>
+      <c r="E61" s="3">
         <v>372100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>369000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>400400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>405400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>343600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>420900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>398100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>326700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>308100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>316100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>348500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>244300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>220600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>222800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>207100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>204400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>213500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>221300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>226900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>214100</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>163800</v>
+      </c>
+      <c r="E62" s="3">
         <v>153000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>147000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>150300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>150500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>133700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>135300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>141700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>117900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>131600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>118700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>64100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>49600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>38400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>36000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>35600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>46300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>53000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>47200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>51300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>833200</v>
+      </c>
+      <c r="E66" s="3">
         <v>800300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>794900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>823500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>829200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>746900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>799800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>790200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>736800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>690800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>699100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>633800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>564200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>495100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>483100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>441800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>457500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>445300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>431500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>422700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>412300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>342700</v>
+      </c>
+      <c r="E72" s="3">
         <v>335300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>312500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>293600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>280200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>266700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>260500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>251200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>245300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>259700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>242700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>231500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>225500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>213400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>198700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>186200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>163800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>169100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>168400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>166000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>165300</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>287800</v>
+      </c>
+      <c r="E76" s="3">
         <v>281900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>259800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>239600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>227600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>216600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>208700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>205200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>197900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>237400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>220700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>209300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>204700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>192800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>179400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>168800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>146300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>151200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>151500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>147700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>145900</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E80" s="2">
         <v>44380</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44289</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44107</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44016</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43925</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43372</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42917</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42826</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E81" s="3">
         <v>25600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>21700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>16200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>13600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>12200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>20000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>17300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>9000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>15100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>17700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>10400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>24400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E83" s="3">
         <v>16300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>19100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>19200</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="3">
         <v>19500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>21600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>18800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>17400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>16900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>15000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>14000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>13200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>12200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>13300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>11800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>11500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>10300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>9900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>300</v>
+      </c>
+      <c r="E89" s="3">
         <v>10300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>43100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>21600</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="3">
         <v>25200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>40100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>44100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>47800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>21000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>30500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>27300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>16100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>13400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>23400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>21200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>25800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>7700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-17900</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3">
         <v>-32800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-19000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-35600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-14300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-12400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-22600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-24300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-16700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-13400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-15600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-17700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-18700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-32500</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-15000</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3">
         <v>-30900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-66000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-31200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-35600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-83900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-82500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-24500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-38200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-16200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-12700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-14900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-17500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-18000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5794,11 +6027,11 @@
         <v>-2800</v>
       </c>
       <c r="E96" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F96" s="3">
         <v>-5700</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -5806,22 +6039,22 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-5700</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-6000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-6100</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-3000</v>
       </c>
       <c r="O96" s="3">
         <v>-3000</v>
@@ -5830,7 +6063,7 @@
         <v>-3000</v>
       </c>
       <c r="Q96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="R96" s="3">
         <v>-2000</v>
@@ -5850,8 +6083,11 @@
       <c r="W96" s="3">
         <v>-2000</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,129 +6287,135 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-36900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6800</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="3">
         <v>10400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>70900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-37100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>67400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>52400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>20900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-9300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-8200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-7100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>10200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E101" s="3">
         <v>700</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>300</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I101" s="3">
+      <c r="I101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="3">
         <v>-4400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>600</v>
-      </c>
-      <c r="U101" s="3">
-        <v>300</v>
       </c>
       <c r="V101" s="3">
         <v>300</v>
@@ -6175,69 +6423,75 @@
       <c r="W101" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>2300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ULH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ULH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>ULH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,334 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44380</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44289</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44107</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44016</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43925</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43736</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43372</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42917</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42826</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>523900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>467400</v>
+      </c>
+      <c r="F8" s="3">
         <v>445600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>422800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>415200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>386000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>365000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>258000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>382200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>375900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>375500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>383200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>377400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>386400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>374300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>365900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>335100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>314000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>313000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>305200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>284400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>264100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>271500</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>368800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>344200</v>
+      </c>
+      <c r="F9" s="3">
         <v>331300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>309000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>296900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>281200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>266100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>186200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>278200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>273000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>275800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>272000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>270500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>283600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>273400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>265700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>248000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>230400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>230800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>223800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>206800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>192300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>197100</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>155100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>123200</v>
+      </c>
+      <c r="F10" s="3">
         <v>114300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>113800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>118300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>104800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>98900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>71800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>104000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>102900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>99700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>111200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>106900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>102800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>100900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>100200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>87100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>83600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>82200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>81400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>77600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>71800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>74400</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1017,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1087,14 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1161,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,76 +1235,88 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E15" s="3">
+        <v>15700</v>
+      </c>
+      <c r="F15" s="3">
         <v>16500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>16300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>19100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>19200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>16900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>18500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>19500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>21600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>18800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>17400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>16900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>15000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>14000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>13200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>12200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>13300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>11800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>11500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>10300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>9900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1338,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>466000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>443600</v>
+      </c>
+      <c r="F17" s="3">
         <v>428900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>391500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>384100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>362400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>342900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>247100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>358300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>360400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>382800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>352500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>350900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>368500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>351800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>339700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>318000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>300900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>316500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>298800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>275300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>258200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>261500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>23800</v>
+      </c>
+      <c r="F18" s="3">
         <v>16700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>31300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>31100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>23600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>22100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>10900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>23900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>15500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-7300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>30700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>26500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>17900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>22500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>26200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>17100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>13100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-3500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>6400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>9100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>5900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1514,380 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>6100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-3600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>800</v>
-      </c>
-      <c r="U20" s="3">
-        <v>500</v>
-      </c>
-      <c r="V20" s="3">
-        <v>100</v>
       </c>
       <c r="W20" s="3">
         <v>500</v>
       </c>
       <c r="X20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>39700</v>
+      </c>
+      <c r="F21" s="3">
         <v>33100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>53700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>51300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>44200</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>39800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>37800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>11600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>48200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>44400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>31400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>38300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>39900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>28900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>26600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>9100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>18400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>19600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>16300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F22" s="3">
         <v>3000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>2900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>3200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>3400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>3500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>3500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>4200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>4500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>4100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>4100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>4400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>4800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>4300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>3000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>2600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>2200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>2500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>2500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>2300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>2000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>21500</v>
+      </c>
+      <c r="F23" s="3">
         <v>13600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>34500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>29000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>21500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>18100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>8200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>16100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>11600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-11300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>26700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>23100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>11600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>20000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>23600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>14200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>11000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-5300</v>
-      </c>
-      <c r="U23" s="3">
-        <v>4400</v>
-      </c>
-      <c r="V23" s="3">
-        <v>7000</v>
       </c>
       <c r="W23" s="3">
         <v>4400</v>
       </c>
       <c r="X23" s="3">
+        <v>7000</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>4400</v>
+      </c>
+      <c r="Z23" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F24" s="3">
         <v>3300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>8900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>7300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>5300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>4500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>3900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-2800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>6700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>5800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>2600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>4900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>6000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>3700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>4800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-2000</v>
-      </c>
-      <c r="U24" s="3">
-        <v>1700</v>
-      </c>
-      <c r="V24" s="3">
-        <v>2700</v>
       </c>
       <c r="W24" s="3">
         <v>1700</v>
       </c>
       <c r="X24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Z24" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1954,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>16200</v>
+      </c>
+      <c r="F26" s="3">
         <v>10300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>25600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>21700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>16200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>13600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>6200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>12200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>8700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-8400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>20000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>17300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>9000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>15100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>17700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>10400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>6200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-3300</v>
-      </c>
-      <c r="U26" s="3">
-        <v>2700</v>
-      </c>
-      <c r="V26" s="3">
-        <v>4300</v>
       </c>
       <c r="W26" s="3">
         <v>2700</v>
       </c>
       <c r="X26" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Z26" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>16200</v>
+      </c>
+      <c r="F27" s="3">
         <v>10300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>25600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>21700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>16200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>13600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>6200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>12200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>8700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-8400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>20000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>17300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>9000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>15100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>17700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>10400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>6200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-3300</v>
-      </c>
-      <c r="U27" s="3">
-        <v>2700</v>
-      </c>
-      <c r="V27" s="3">
-        <v>4300</v>
       </c>
       <c r="W27" s="3">
         <v>2700</v>
       </c>
       <c r="X27" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Z27" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2176,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2092,11 +2214,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2110,14 +2232,14 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>18200</v>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
+      <c r="U29" s="3">
+        <v>18200</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2128,8 +2250,14 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2324,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2398,162 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-6100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>3600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-800</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-500</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-100</v>
       </c>
       <c r="W32" s="3">
         <v>-500</v>
       </c>
       <c r="X32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>16200</v>
+      </c>
+      <c r="F33" s="3">
         <v>10300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>25600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>21700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>16200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>13600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>6200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>12200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>8700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-8400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>20000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>17300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>9000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>15100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>17700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>10400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>24400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-3300</v>
-      </c>
-      <c r="U33" s="3">
-        <v>2700</v>
-      </c>
-      <c r="V33" s="3">
-        <v>4300</v>
       </c>
       <c r="W33" s="3">
         <v>2700</v>
       </c>
       <c r="X33" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Z33" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2620,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>16200</v>
+      </c>
+      <c r="F35" s="3">
         <v>10300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>25600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>21700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>16200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>13600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>6200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>12200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>8700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-8400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>20000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>17300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>9000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>15100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>17700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>10400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>24400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-3300</v>
-      </c>
-      <c r="U35" s="3">
-        <v>2700</v>
-      </c>
-      <c r="V35" s="3">
-        <v>4300</v>
       </c>
       <c r="W35" s="3">
         <v>2700</v>
       </c>
       <c r="X35" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Z35" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44380</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44289</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44107</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44016</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43925</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43736</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43372</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42917</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42826</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2805,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,232 +2833,252 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>13900</v>
+      </c>
+      <c r="F41" s="3">
         <v>13000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>13100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>10800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>8800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>8700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>8000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>8000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>7700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>6500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>6500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>6300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>5700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2500</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>1700</v>
-      </c>
-      <c r="R41" s="3">
-        <v>2100</v>
       </c>
       <c r="S41" s="3">
         <v>1700</v>
       </c>
       <c r="T41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="U41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="V41" s="3">
         <v>2900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>2000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>3400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F42" s="3">
         <v>7800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>7900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>7500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>6500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>6700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>7200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>6300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>9400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>9100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>9600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>10200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>9300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>10400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>12500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>11900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>15100</v>
-      </c>
-      <c r="T42" s="3">
-        <v>14600</v>
-      </c>
-      <c r="U42" s="3">
-        <v>14100</v>
       </c>
       <c r="V42" s="3">
         <v>14600</v>
       </c>
       <c r="W42" s="3">
+        <v>14100</v>
+      </c>
+      <c r="X42" s="3">
+        <v>14600</v>
+      </c>
+      <c r="Y42" s="3">
         <v>14400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>423100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>368500</v>
+      </c>
+      <c r="F43" s="3">
         <v>351500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>312500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>289400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>282800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>272300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>201500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>240500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>231300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>232200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>227100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>241100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>240400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>235600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>233900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>220500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>191200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>187400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>175000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>170900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>162700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>165100</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
+      <c r="E44" s="3">
+        <v>14100</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="3">
-        <v>8300</v>
+      <c r="G44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
+      <c r="I44" s="3">
+        <v>8300</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
@@ -2900,11 +3092,11 @@
       <c r="M44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2933,144 +3125,162 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>16100</v>
+      </c>
+      <c r="F45" s="3">
         <v>23800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>25600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>22100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>15200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>27500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>25200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>21200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>23400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>19000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>22000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>17800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>19800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>25800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>21100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>18900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>20600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>23200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>30500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>23600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>28700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>477800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>420700</v>
+      </c>
+      <c r="F46" s="3">
         <v>396100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>359200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>329900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>321500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>315200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>241900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>276000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>271800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>266800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>265200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>275500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>275300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>274400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>269100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>253500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>228700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>228100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>221600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>212500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>207500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>203600</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,144 +3347,162 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>449400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>451400</v>
+      </c>
+      <c r="F48" s="3">
         <v>456300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>450700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>448200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>462600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>459700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>438000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>446200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>434500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>397300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>386700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>384100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>303200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>298600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>284400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>272700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>267200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>263400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>260800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>255200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>246300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>236500</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>255500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>259100</v>
+      </c>
+      <c r="F49" s="3">
         <v>262500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>266000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>269500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>273000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>276800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>278000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>282100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>284600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>265400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>270500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>254100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>258900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>189900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>126000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>126800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>105700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>107000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>108200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>109900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>111700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>113500</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3569,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3643,88 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F52" s="3">
         <v>6100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>6400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>7100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>5900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>5300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>5500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>4200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>4600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>5300</v>
-      </c>
-      <c r="M52" s="3">
-        <v>5700</v>
-      </c>
-      <c r="N52" s="3">
-        <v>6100</v>
       </c>
       <c r="O52" s="3">
         <v>5700</v>
       </c>
       <c r="P52" s="3">
+        <v>6100</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>5700</v>
+      </c>
+      <c r="R52" s="3">
         <v>6000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>8400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>9500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>9000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>5300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>5800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>5500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>5100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3791,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1189200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1137500</v>
+      </c>
+      <c r="F54" s="3">
         <v>1121000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1082200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1054700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1063000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1056900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>963400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1008500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>995400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>934700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>928200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>919700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>843100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>769000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>687900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>662500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>610600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>603900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>596500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>583100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>570500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>558200</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3897,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3925,454 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>130500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>117800</v>
+      </c>
+      <c r="F57" s="3">
         <v>112900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>104300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>98600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>97900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>110800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>111700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>88800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>91900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>101500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>95100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>100700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>92000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>107000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>113500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>103900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>84400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>100800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>89100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>85700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>65900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>60500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>61200</v>
+      </c>
+      <c r="F58" s="3">
         <v>60600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>60000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>60000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>59700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>61200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>60100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>57900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>59500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>59900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>56300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>53500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>51900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>85000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>51600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>48200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>40900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>39200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>36700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>35000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>34600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>35100</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>164800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>133700</v>
+      </c>
+      <c r="F59" s="3">
         <v>113000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>110900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>120300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>115200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>101300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>97800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>96900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>106000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>130900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>99700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>110100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>77200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>78300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>71000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>72200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>73800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>66900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>52900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>42400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>44000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>355800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>312700</v>
+      </c>
+      <c r="F60" s="3">
         <v>286400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>275200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>278900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>272800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>273300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>269600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>243600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>250400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>292300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>251100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>264200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>221200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>270300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>236100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>224300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>199100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>206900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>178800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>163000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>144500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>341200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>366200</v>
+      </c>
+      <c r="F61" s="3">
         <v>383000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>372100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>369000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>400400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>405400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>343600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>420900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>398100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>326700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>308100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>316100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>348500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>244300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>220600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>222800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>207100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>204400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>213500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>221300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>226900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>214100</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>158400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>156400</v>
+      </c>
+      <c r="F62" s="3">
         <v>163800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>153000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>147000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>150300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>150500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>133700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>135300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>141700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>117900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>131600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>118700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>64100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>49600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>38400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>36000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>35600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>46300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>53000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>47200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>51300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4439,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4513,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4587,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>855400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>835300</v>
+      </c>
+      <c r="F66" s="3">
         <v>833200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>800300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>794900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>823500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>829200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>746900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>799800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>790200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>736800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>690800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>699100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>633800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>564200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>495100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>483100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>441800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>457500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>445300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>431500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>422700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>412300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4693,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4763,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4837,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4911,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4985,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>395300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>356100</v>
+      </c>
+      <c r="F72" s="3">
         <v>342700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>335300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>312500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>293600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>280200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>266700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>260500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>251200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>245300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>259700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>242700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>231500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>225500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>213400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>198700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>186200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>163800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>169100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>168400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>166000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>165300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5133,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5207,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5281,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>333700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>302200</v>
+      </c>
+      <c r="F76" s="3">
         <v>287800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>281900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>259800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>239600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>227600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>216600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>208700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>205200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>197900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>237400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>220700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>209300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>204700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>192800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>179400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>168800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>146300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>151200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>151500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>147700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>145900</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5429,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44289</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44107</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44016</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43925</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43736</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43372</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42917</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42826</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>16200</v>
+      </c>
+      <c r="F81" s="3">
         <v>10300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>25600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>21700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>16200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>13600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>6200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>12200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>8700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-8400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>20000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>17300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>9000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>15100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>17700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>10400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>24400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-3300</v>
-      </c>
-      <c r="U81" s="3">
-        <v>2700</v>
-      </c>
-      <c r="V81" s="3">
-        <v>4300</v>
       </c>
       <c r="W81" s="3">
         <v>2700</v>
       </c>
       <c r="X81" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Z81" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5614,84 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>15700</v>
+      </c>
+      <c r="F83" s="3">
         <v>16500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>16300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>19100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>19200</v>
       </c>
-      <c r="H83" s="3" t="s">
+      <c r="J83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I83" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>19500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>21600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>18800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>17400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>16900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>15000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>14000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>13200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>12200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>13300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>11800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>11500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>10300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>9900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5758,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5832,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5906,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5980,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +6054,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>41100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>29500</v>
+      </c>
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>10300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>43100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>21600</v>
       </c>
-      <c r="H89" s="3" t="s">
+      <c r="J89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I89" s="3" t="s">
+      <c r="K89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>25200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-3900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>40100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>44100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>47800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>21000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>30500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>27300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>16100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>13400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>23400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>21200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>25800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>7700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +6160,84 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-9300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-12000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-4900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-17900</v>
       </c>
-      <c r="H91" s="3" t="s">
+      <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I91" s="3" t="s">
+      <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-32800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-19000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-35600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-14300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-10800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-12400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-22600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-24300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-7300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-16700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-13400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-15600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-17700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-18700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-32500</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6304,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6378,88 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-8100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-8900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-4200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-15000</v>
       </c>
-      <c r="H94" s="3" t="s">
+      <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I94" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-30900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-66000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-31200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-35600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-10300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-83900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-82500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-24500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-38200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-16200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-12700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-14900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-17500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-18000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,58 +6484,60 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-2800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-2800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-5700</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-5700</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-6000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-6100</v>
       </c>
       <c r="O96" s="3">
         <v>-3000</v>
       </c>
       <c r="P96" s="3">
-        <v>-3000</v>
+        <v>-6100</v>
       </c>
       <c r="Q96" s="3">
         <v>-3000</v>
       </c>
       <c r="R96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="S96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="T96" s="3">
         <v>-2000</v>
@@ -6086,8 +6554,14 @@
       <c r="X96" s="3">
         <v>-2000</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6628,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6702,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6776,232 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="F100" s="3">
         <v>8500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-36900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-6800</v>
       </c>
-      <c r="H100" s="3" t="s">
+      <c r="J100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I100" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>10400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>70900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-8700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-8400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-37100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>67400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>52400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-1800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>20900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>1400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-9300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-8200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-7100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>10200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>700</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3" t="s">
+      <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I101" s="3" t="s">
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-4400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-1300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-1400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>1700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>600</v>
-      </c>
-      <c r="V101" s="3">
-        <v>300</v>
-      </c>
-      <c r="W101" s="3">
-        <v>300</v>
       </c>
       <c r="X101" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>2300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>2000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3" t="s">
+      <c r="J102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I102" s="3" t="s">
+      <c r="K102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>3200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-1200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-1300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>1600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ULH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ULH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>ULH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,346 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
         <v>44653</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44471</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44289</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44107</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44016</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43925</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42917</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42826</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>527200</v>
+      </c>
+      <c r="E8" s="3">
         <v>523900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>467400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>445600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>422800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>415200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>386000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>365000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>258000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>382200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>375900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>375500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>383200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>377400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>386400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>374300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>365900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>335100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>314000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>313000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>305200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>284400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>264100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>271500</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>354500</v>
+      </c>
+      <c r="E9" s="3">
         <v>368800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>344200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>331300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>309000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>296900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>281200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>266100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>186200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>278200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>273000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>275800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>272000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>270500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>283600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>273400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>265700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>248000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>230400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>230800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>223800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>206800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>192300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>197100</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>172700</v>
+      </c>
+      <c r="E10" s="3">
         <v>155100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>123200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>114300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>113800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>118300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>104800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>98900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>71800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>104000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>102900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>99700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>111200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>106900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>102800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>100900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>100200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>87100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>83600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>82200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>81400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>77600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>71800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>74400</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1093,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1241,82 +1260,88 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E15" s="3">
         <v>16200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>15700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>16500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>16300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>19100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>19200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>16900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>18500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>19500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>21600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>18800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>17400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>16900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>15000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>14000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>13200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>12200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>13300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>11800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>11500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>10300</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>9900</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>462500</v>
+      </c>
+      <c r="E17" s="3">
         <v>466000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>443600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>428900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>391500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>384100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>362400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>342900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>247100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>358300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>360400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>382800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>352500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>350900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>368500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>351800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>339700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>318000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>300900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>316500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>298800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>275300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>258200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>261500</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E18" s="3">
         <v>57900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>23800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>16700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>31300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>31100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>23600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>22100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>23900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>15500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>30700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>26500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>17900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>22500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>26200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>17100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>13100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>6400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>9100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>5900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,378 +1548,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>6100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>90900</v>
+      </c>
+      <c r="E21" s="3">
         <v>75000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>39700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>33100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>53700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>51300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>44200</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>39800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>37800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>11600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>48200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>44400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>31400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>38300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>39900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>28900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>26600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>9100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>18400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>19600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>16300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E22" s="3">
         <v>2400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>3500</v>
       </c>
       <c r="K22" s="3">
         <v>3500</v>
       </c>
       <c r="L22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="M22" s="3">
         <v>4200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4500</v>
-      </c>
-      <c r="N22" s="3">
-        <v>4100</v>
       </c>
       <c r="O22" s="3">
         <v>4100</v>
       </c>
       <c r="P22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="Q22" s="3">
         <v>4400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2200</v>
-      </c>
-      <c r="V22" s="3">
-        <v>2500</v>
       </c>
       <c r="W22" s="3">
         <v>2500</v>
       </c>
       <c r="X22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Y22" s="3">
         <v>2300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>2000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>59900</v>
+      </c>
+      <c r="E23" s="3">
         <v>56400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>21500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>13600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>34500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>29000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>21500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>18100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>16100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>11600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>26700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>23100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>11600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>20000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>23600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>14200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>11000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-5300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>7000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>4400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E24" s="3">
         <v>14400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>6000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>4800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-2000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E26" s="3">
         <v>42000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>16200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>10300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>25600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>21700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>16200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>13600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>12200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>20000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>17300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>9000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>15100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>17700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>10400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>6200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-3300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>4300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E27" s="3">
         <v>42000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>16200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>10300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>25600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>21700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>16200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>13600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>12200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>8700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>20000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>17300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>9000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>15100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>17700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>10400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>6200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-3300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>4300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2220,8 +2280,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2238,11 +2298,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>18200</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2256,8 +2316,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-6100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E33" s="3">
         <v>42000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>16200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>10300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>25600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>21700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>16200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>13600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>12200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>8700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>20000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>17300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>9000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>15100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>17700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>10400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>24400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>4300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E35" s="3">
         <v>42000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>16200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>10300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>25600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>21700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>16200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>13600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>12200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>8700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>20000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>17300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>9000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>15100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>17700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>10400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>24400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>4300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
         <v>44653</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44471</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44289</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44107</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44016</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43925</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42917</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42826</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,241 +2920,251 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E41" s="3">
         <v>14900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8700</v>
-      </c>
-      <c r="K41" s="3">
-        <v>8000</v>
       </c>
       <c r="L41" s="3">
         <v>8000</v>
       </c>
       <c r="M41" s="3">
+        <v>8000</v>
+      </c>
+      <c r="N41" s="3">
         <v>7700</v>
-      </c>
-      <c r="N41" s="3">
-        <v>6500</v>
       </c>
       <c r="O41" s="3">
         <v>6500</v>
       </c>
       <c r="P41" s="3">
+        <v>6500</v>
+      </c>
+      <c r="Q41" s="3">
         <v>6300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E42" s="3">
         <v>9000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>8000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>7800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>7900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>7500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>6500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>6700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>7200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>6300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>9400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>9100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>9600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>10200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>9300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>10400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>12500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>11900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>15100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>14600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>14100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>14600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>14400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>426100</v>
+      </c>
+      <c r="E43" s="3">
         <v>423100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>368500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>351500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>312500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>289400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>282800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>272300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>201500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>240500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>231300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>232200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>227100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>241100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>240400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>235600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>233900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>220500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>191200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>187400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>175000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>170900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>162700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>165100</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="3">
         <v>14100</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>8</v>
@@ -3077,11 +3172,11 @@
       <c r="H44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3">
         <v>8300</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>8</v>
@@ -3098,8 +3193,8 @@
       <c r="O44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -3131,156 +3226,165 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E45" s="3">
         <v>30800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>23800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>25600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>22100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>27500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>25200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>21200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>23400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>19000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>22000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>17800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>19800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>25800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>21100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>18900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>20600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>23200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>30500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>23600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>28700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>482600</v>
+      </c>
+      <c r="E46" s="3">
         <v>477800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>420700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>396100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>359200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>329900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>321500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>315200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>241900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>276000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>271800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>266800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>265200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>275500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>275300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>274400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>269100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>253500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>228700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>228100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>221600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>212500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>207500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>203600</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,156 +3457,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>449900</v>
+      </c>
+      <c r="E48" s="3">
         <v>449400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>451400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>456300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>450700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>448200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>462600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>459700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>438000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>446200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>434500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>397300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>386700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>384100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>303200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>298600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>284400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>272700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>267200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>263400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>260800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>255200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>246300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>236500</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>252000</v>
+      </c>
+      <c r="E49" s="3">
         <v>255500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>259100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>262500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>266000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>269500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>273000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>276800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>278000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>282100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>284600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>265400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>270500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>254100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>258900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>189900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>126000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>126800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>105700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>107000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>108200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>109900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>111700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>113500</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E52" s="3">
         <v>6500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>9000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1191500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1189200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1137500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1121000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1082200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1054700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1063000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1056900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>963400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1008500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>995400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>934700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>928200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>919700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>843100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>769000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>687900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>662500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>610600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>603900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>596500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>583100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>570500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>558200</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>118700</v>
+      </c>
+      <c r="E57" s="3">
         <v>130500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>117800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>112900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>104300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>98600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>97900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>110800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>111700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>88800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>91900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>101500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>95100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>100700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>92000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>107000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>113500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>103900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>84400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>100800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>89100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>85700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>65900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E58" s="3">
         <v>60500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>61200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>60600</v>
-      </c>
-      <c r="G58" s="3">
-        <v>60000</v>
       </c>
       <c r="H58" s="3">
         <v>60000</v>
       </c>
       <c r="I58" s="3">
+        <v>60000</v>
+      </c>
+      <c r="J58" s="3">
         <v>59700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>61200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>60100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>57900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>59500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>59900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>56300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>53500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>51900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>85000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>51600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>48200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>40900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>39200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>36700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>35000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>34600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>35100</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>136800</v>
+      </c>
+      <c r="E59" s="3">
         <v>164800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>133700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>113000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>110900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>120300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>115200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>101300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>97800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>96900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>106000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>130900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>99700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>110100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>77200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>78300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>71000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>72200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>73800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>66900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>52900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>42400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>44000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>307900</v>
+      </c>
+      <c r="E60" s="3">
         <v>355800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>312700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>286400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>275200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>278900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>272800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>273300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>269600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>243600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>250400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>292300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>251100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>264200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>221200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>270300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>236100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>224300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>199100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>206900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>178800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>163000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>144500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>362900</v>
+      </c>
+      <c r="E61" s="3">
         <v>341200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>366200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>383000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>372100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>369000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>400400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>405400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>343600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>420900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>398100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>326700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>308100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>316100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>348500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>244300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>220600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>222800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>207100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>204400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>213500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>221300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>226900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>214100</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>153800</v>
+      </c>
+      <c r="E62" s="3">
         <v>158400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>156400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>163800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>153000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>147000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>150300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>150500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>133700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>135300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>141700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>117900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>131600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>118700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>64100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>49600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>38400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>36000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>35600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>46300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>53000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>47200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>51300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>824500</v>
+      </c>
+      <c r="E66" s="3">
         <v>855400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>835300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>833200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>800300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>794900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>823500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>829200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>746900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>799800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>790200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>736800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>690800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>699100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>633800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>564200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>495100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>483100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>441800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>457500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>445300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>431500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>422700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>412300</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>437200</v>
+      </c>
+      <c r="E72" s="3">
         <v>395300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>356100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>342700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>335300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>312500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>293600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>280200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>266700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>260500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>251200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>245300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>259700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>242700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>231500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>225500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>213400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>198700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>186200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>163800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>169100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>168400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>166000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>165300</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>367000</v>
+      </c>
+      <c r="E76" s="3">
         <v>333700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>302200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>287800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>281900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>259800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>239600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>227600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>216600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>208700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>205200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>197900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>237400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>220700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>209300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>204700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>192800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>179400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>168800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>146300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>151200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>151500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>147700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>145900</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
         <v>44653</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44471</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44289</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44107</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44016</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43925</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42917</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42826</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E81" s="3">
         <v>42000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>16200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>10300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>25600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>21700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>16200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>13600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>12200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>8700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>20000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>17300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>9000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>15100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>17700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>10400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>24400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>4300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E83" s="3">
         <v>16200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>15700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>16500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>16300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>19100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>19200</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>19500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>21600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>18800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>17400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>16900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>15000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>14000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>13200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>12200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>13300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>11800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>11500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>10300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>9900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E89" s="3">
         <v>41100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>29500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>10300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>43100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>21600</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M89" s="3">
         <v>25200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>40100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>44100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>47800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>21000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>30500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>27300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>16100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>13400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>23400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>21200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>25800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>7700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-12600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-17900</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3">
         <v>-32800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-19000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-35600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-14300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-12400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-22600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-24300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-7300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-16700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-13400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-15600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-17700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-18700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-32500</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-15000</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-30900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-66000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-31200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-35600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-83900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-82500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-24500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-38200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-16200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-12700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-14900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-17500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-18000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,29 +6718,30 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-5600</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
-        <v>-2800</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>-2800</v>
       </c>
       <c r="H96" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I96" s="3">
         <v>-5700</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -6516,22 +6749,22 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-5700</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-6000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-3000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-6100</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-3000</v>
       </c>
       <c r="R96" s="3">
         <v>-3000</v>
@@ -6540,7 +6773,7 @@
         <v>-3000</v>
       </c>
       <c r="T96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="U96" s="3">
         <v>-2000</v>
@@ -6560,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>-2000</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,147 +7024,153 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-36700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-16400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>8500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-36900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-6800</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>10400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>70900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-37100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>67400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>52400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>20900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-9300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-8200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-7100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>10200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>700</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>300</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
         <v>-4400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>600</v>
-      </c>
-      <c r="X101" s="3">
-        <v>300</v>
       </c>
       <c r="Y101" s="3">
         <v>300</v>
@@ -6930,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ULH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ULH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>ULH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,358 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44471</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44380</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44289</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44107</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44016</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43925</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43372</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42917</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42826</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>505700</v>
+      </c>
+      <c r="E8" s="3">
         <v>527200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>523900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>467400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>445600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>422800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>415200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>386000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>365000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>258000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>382200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>375900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>375500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>383200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>377400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>386400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>374300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>365900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>335100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>314000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>313000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>305200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>284400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>264100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>271500</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>336600</v>
+      </c>
+      <c r="E9" s="3">
         <v>354500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>368800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>344200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>331300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>309000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>296900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>281200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>266100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>186200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>278200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>273000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>275800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>272000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>270500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>283600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>273400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>265700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>248000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>230400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>230800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>223800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>206800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>192300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>197100</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>169100</v>
+      </c>
+      <c r="E10" s="3">
         <v>172700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>155100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>123200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>114300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>113800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>118300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>104800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>98900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>71800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>104000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>102900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>99700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>111200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>106900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>102800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>100900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>100200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>87100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>83600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>82200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>81400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>77600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>71800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>74400</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1044,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1122,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1202,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,85 +1282,91 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E15" s="3">
         <v>27100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>16200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>15700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>16500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>16300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>19100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>19200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>16900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>18500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>19500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>21600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>18800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>17400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>16900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>15000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>14000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>13200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>12200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>13300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>11800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>11500</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>10300</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>9900</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1391,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>435900</v>
+      </c>
+      <c r="E17" s="3">
         <v>462500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>466000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>443600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>428900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>391500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>384100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>362400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>342900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>247100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>358300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>360400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>382800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>352500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>350900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>368500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>351800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>339700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>318000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>300900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>316500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>298800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>275300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>258200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>261500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>69800</v>
+      </c>
+      <c r="E18" s="3">
         <v>64700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>57900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>23800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>16700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>31300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>31100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>23600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>22100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>23900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>15500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>30700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>26500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>17900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>22500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>26200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>17100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>13100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-3500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>6400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>9100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>5900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1581,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>6100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>84400</v>
+      </c>
+      <c r="E21" s="3">
         <v>90900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>75000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>39700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>33100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>53700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>51300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>44200</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>39800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>37800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>11600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>48200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>44400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>31400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>38300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>39900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>28900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>26600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>9100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>18400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>19600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>16300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E22" s="3">
         <v>3900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3400</v>
-      </c>
-      <c r="K22" s="3">
-        <v>3500</v>
       </c>
       <c r="L22" s="3">
         <v>3500</v>
       </c>
       <c r="M22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="N22" s="3">
         <v>4200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4500</v>
-      </c>
-      <c r="O22" s="3">
-        <v>4100</v>
       </c>
       <c r="P22" s="3">
         <v>4100</v>
       </c>
       <c r="Q22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="R22" s="3">
         <v>4400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2200</v>
-      </c>
-      <c r="W22" s="3">
-        <v>2500</v>
       </c>
       <c r="X22" s="3">
         <v>2500</v>
       </c>
       <c r="Y22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Z22" s="3">
         <v>2300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>2000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>64800</v>
+      </c>
+      <c r="E23" s="3">
         <v>59900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>56400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>21500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>13600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>34500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>29000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>21500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>18100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>16100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>11600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-11300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>26700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>23100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>11600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>20000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>23600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>14200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>11000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-5300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>4400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>7000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>4400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E24" s="3">
         <v>15200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>14400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>6000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>4800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-2000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2059,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E26" s="3">
         <v>44700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>42000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>16200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>10300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>25600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>21700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>16200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>13600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>12200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>20000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>17300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>9000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>15100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>17700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>10400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>6200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-3300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>4300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E27" s="3">
         <v>44700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>42000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>16200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>10300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>25600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>21700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>16200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>13600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>12200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>8700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>20000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>17300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>9000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>15100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>17700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>10400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>6200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>4300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2299,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2283,8 +2343,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2301,11 +2361,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>18200</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2319,8 +2379,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2459,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2539,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>500</v>
+      </c>
+      <c r="E32" s="3">
         <v>800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-6100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E33" s="3">
         <v>44700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>42000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>16200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>10300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>25600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>21700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>16200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>13600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>12200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>8700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>20000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>17300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>9000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>15100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>17700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>10400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>24400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>4300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2779,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E35" s="3">
         <v>44700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>42000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>16200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>10300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>25600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>21700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>16200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>13600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>12200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>8700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>20000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>17300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>9000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>15100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>17700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>10400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>24400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>4300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44471</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44380</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44289</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44107</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44016</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43925</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43372</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42917</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42826</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2976,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,239 +3006,249 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E41" s="3">
         <v>14700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8700</v>
-      </c>
-      <c r="L41" s="3">
-        <v>8000</v>
       </c>
       <c r="M41" s="3">
         <v>8000</v>
       </c>
       <c r="N41" s="3">
+        <v>8000</v>
+      </c>
+      <c r="O41" s="3">
         <v>7700</v>
-      </c>
-      <c r="O41" s="3">
-        <v>6500</v>
       </c>
       <c r="P41" s="3">
         <v>6500</v>
       </c>
       <c r="Q41" s="3">
+        <v>6500</v>
+      </c>
+      <c r="R41" s="3">
         <v>6300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E42" s="3">
         <v>8200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>9000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>8000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>7800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>7900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>7500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>6500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>6700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>7200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>6300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>9400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>9100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>9600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>10200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>9300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>10400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>12500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>11900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>15100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>14600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>14100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>14600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>14400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>406600</v>
+      </c>
+      <c r="E43" s="3">
         <v>426100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>423100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>368500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>351500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>312500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>289400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>282800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>272300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>201500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>240500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>231300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>232200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>227100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>241100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>240400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>235600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>233900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>220500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>191200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>187400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>175000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>170900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>162700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>165100</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3163,11 +3258,11 @@
       <c r="E44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3">
         <v>14100</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>8</v>
@@ -3175,11 +3270,11 @@
       <c r="I44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="3">
         <v>8300</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>8</v>
@@ -3196,8 +3291,8 @@
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -3229,162 +3324,171 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E45" s="3">
         <v>33600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>30800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>23800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>25600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>22100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>15200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>27500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>25200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>21200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>23400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>19000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>22000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>17800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>19800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>25800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>21100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>18900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>20600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>23200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>30500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>23600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>28700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>459200</v>
+      </c>
+      <c r="E46" s="3">
         <v>482600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>477800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>420700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>396100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>359200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>329900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>321500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>315200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>241900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>276000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>271800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>266800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>265200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>275500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>275300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>274400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>269100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>253500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>228700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>228100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>221600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>212500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>207500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>203600</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,162 +3564,171 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>481600</v>
+      </c>
+      <c r="E48" s="3">
         <v>449900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>449400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>451400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>456300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>450700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>448200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>462600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>459700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>438000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>446200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>434500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>397300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>386700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>384100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>303200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>298600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>284400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>272700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>267200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>263400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>260800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>255200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>246300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>236500</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>248400</v>
+      </c>
+      <c r="E49" s="3">
         <v>252000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>255500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>259100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>262500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>266000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>269500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>273000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>276800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>278000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>282100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>284600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>265400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>270500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>254100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>258900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>189900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>126000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>126800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>105700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>107000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>108200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>109900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>111700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>113500</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3804,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3884,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E52" s="3">
         <v>7000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>9500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>9000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>5100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4044,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1199200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1191500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1189200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1137500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1121000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1082200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1054700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1063000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1056900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>963400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1008500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>995400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>934700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>928200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>919700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>843100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>769000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>687900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>662500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>610600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>603900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>596500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>583100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>570500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>558200</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4156,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4186,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>107500</v>
+      </c>
+      <c r="E57" s="3">
         <v>118700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>130500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>117800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>112900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>104300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>98600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>97900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>110800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>111700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>88800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>91900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>101500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>95100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>100700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>92000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>107000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>113500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>103900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>84400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>100800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>89100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>85700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>65900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>62500</v>
+      </c>
+      <c r="E58" s="3">
         <v>52400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>60500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>61200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>60600</v>
-      </c>
-      <c r="H58" s="3">
-        <v>60000</v>
       </c>
       <c r="I58" s="3">
         <v>60000</v>
       </c>
       <c r="J58" s="3">
+        <v>60000</v>
+      </c>
+      <c r="K58" s="3">
         <v>59700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>61200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>60100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>57900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>59500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>59900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>56300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>53500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>51900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>85000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>51600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>48200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>40900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>39200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>36700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>35000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>34600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>35100</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>135400</v>
+      </c>
+      <c r="E59" s="3">
         <v>136800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>164800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>133700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>113000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>110900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>120300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>115200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>101300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>97800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>96900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>106000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>130900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>99700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>110100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>77200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>78300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>71000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>72200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>73800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>66900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>52900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>42400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>44000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>305400</v>
+      </c>
+      <c r="E60" s="3">
         <v>307900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>355800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>312700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>286400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>275200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>278900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>272800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>273300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>269600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>243600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>250400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>292300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>251100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>264200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>221200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>270300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>236100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>224300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>199100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>206900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>178800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>163000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>144500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>326700</v>
+      </c>
+      <c r="E61" s="3">
         <v>362900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>341200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>366200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>383000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>372100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>369000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>400400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>405400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>343600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>420900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>398100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>326700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>308100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>316100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>348500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>244300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>220600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>222800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>207100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>204400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>213500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>221300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>226900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>214100</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>152100</v>
+      </c>
+      <c r="E62" s="3">
         <v>153800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>158400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>156400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>163800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>153000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>147000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>150300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>150500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>133700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>135300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>141700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>117900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>131600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>118700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>64100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>49600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>38400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>36000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>35600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>46300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>53000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>47200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>51300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4744,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4824,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4904,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>784200</v>
+      </c>
+      <c r="E66" s="3">
         <v>824500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>855400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>835300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>833200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>800300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>794900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>823500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>829200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>746900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>799800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>790200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>736800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>690800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>699100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>633800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>564200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>495100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>483100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>441800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>457500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>445300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>431500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>422700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>412300</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5016,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5094,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5174,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5254,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5334,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>482900</v>
+      </c>
+      <c r="E72" s="3">
         <v>437200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>395300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>356100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>342700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>335300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>312500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>293600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>280200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>266700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>260500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>251200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>245300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>259700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>242700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>231500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>225500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>213400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>198700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>186200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>163800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>169100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>168400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>166000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>165300</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5494,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5574,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5654,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>415000</v>
+      </c>
+      <c r="E76" s="3">
         <v>367000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>333700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>302200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>287800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>281900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>259800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>239600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>227600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>216600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>208700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>205200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>197900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>237400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>220700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>209300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>204700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>192800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>179400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>168800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>146300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>151200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>151500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>147700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>145900</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5814,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44471</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44380</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44289</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44107</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44016</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43925</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43372</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42917</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42826</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E81" s="3">
         <v>44700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>42000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>16200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>10300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>25600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>21700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>16200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>13600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>12200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>8700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>20000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>17300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>9000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>15100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>17700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>10400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>24400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>4300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6011,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E83" s="3">
         <v>27100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>16200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>15700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>16500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>16300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>19100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>19200</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3">
         <v>19500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>21600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>18800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>17400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>16900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>15000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>14000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>13200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>12200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>13300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>11800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>11500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>10300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>9900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6169,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6249,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6329,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6409,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6489,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>75200</v>
+      </c>
+      <c r="E89" s="3">
         <v>28200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>41100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>29500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>10300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>43100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>21600</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N89" s="3">
         <v>25200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>40100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>44100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>47800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>21000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>30500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>27300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>16100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>13400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>23400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>21200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>25800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>7700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6601,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-48300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-31500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-17900</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N91" s="3">
         <v>-32800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-19000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-35600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-14300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-10800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-12400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-22600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-24300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-7300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-16700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-13400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-15600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-17700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-18700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-32500</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6759,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6839,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-28700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-12100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-15000</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3">
         <v>-30900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-66000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-31200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-35600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-10300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-83900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-82500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-24500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-38200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-16200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-12700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-14900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-17500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-18000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6951,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6728,23 +6961,23 @@
         <v>-2800</v>
       </c>
       <c r="E96" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F96" s="3">
         <v>-5600</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
-        <v>-2800</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>-2800</v>
       </c>
       <c r="I96" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J96" s="3">
         <v>-5700</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -6752,22 +6985,22 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-5700</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-6000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-6100</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-3000</v>
       </c>
       <c r="S96" s="3">
         <v>-3000</v>
@@ -6776,7 +7009,7 @@
         <v>-3000</v>
       </c>
       <c r="U96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="V96" s="3">
         <v>-2000</v>
@@ -6796,8 +7029,11 @@
       <c r="AA96" s="3">
         <v>-2000</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7109,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7189,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,153 +7269,159 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="E100" s="3">
         <v>1100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-36700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-16400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>8500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-36900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-6800</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3">
         <v>10400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>70900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-37100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>67400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>52400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>20900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-9300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-8200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-7100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>10200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-900</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>700</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>300</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3">
         <v>-4400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>600</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>300</v>
       </c>
       <c r="Z101" s="3">
         <v>300</v>
@@ -7181,81 +7429,87 @@
       <c r="AA101" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ULH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ULH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>ULH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,358 +665,384 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44835</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44744</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44653</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44471</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44380</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44289</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44107</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44016</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43925</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43736</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43645</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43554</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43372</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42917</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42826</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>437400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>458700</v>
+      </c>
+      <c r="F8" s="3">
         <v>505700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>527200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>523900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>467400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>445600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>422800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>415200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>386000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>365000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>258000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>382200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>375900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>375500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>383200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>377400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>386400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>374300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>365900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>335100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>314000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>313000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>305200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>284400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>264100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>271500</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>295800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>310100</v>
+      </c>
+      <c r="F9" s="3">
         <v>336600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>354500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>368800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>344200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>331300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>309000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>296900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>281200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>266100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>186200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>278200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>273000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>275800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>272000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>270500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>283600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>273400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>265700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>248000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>230400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>230800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>223800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>206800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>192300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>197100</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>141600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>148600</v>
+      </c>
+      <c r="F10" s="3">
         <v>169100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>172700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>155100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>123200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>114300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>113800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>118300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>104800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>98900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>71800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>104000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>102900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>99700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>111200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>106900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>102800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>100900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>100200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>87100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>83600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>82200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>81400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>77600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>71800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>74400</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1045,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1125,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1205,8 +1239,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1285,88 +1325,100 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E15" s="3">
+        <v>18300</v>
+      </c>
+      <c r="F15" s="3">
         <v>15000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>27100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>16200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>15700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>16500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>16300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>19100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>19200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>16900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>18500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>19500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>21600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>18800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>17400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>16900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>15000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>14000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>13200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>12200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>13300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>11800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>11500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>10300</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>9900</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AD15" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1392,168 +1444,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>399200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>410600</v>
+      </c>
+      <c r="F17" s="3">
         <v>435900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>462500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>466000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>443600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>428900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>391500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>384100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>362400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>342900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>247100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>358300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>360400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>382800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>352500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>350900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>368500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>351800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>339700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>318000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>300900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>316500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>298800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>275300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>258200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>261500</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>48100</v>
+      </c>
+      <c r="F18" s="3">
         <v>69800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>64700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>57900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>23800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>16700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>31300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>31100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>23600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>22100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>10900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>23900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>15500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>30700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>26500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>17900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>22500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>26200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>17100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>13100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>6400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>9100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>5900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1582,408 +1648,440 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>6100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-3600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-1500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>1800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>800</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>500</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>100</v>
       </c>
       <c r="AA20" s="3">
         <v>500</v>
       </c>
       <c r="AB20" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>500</v>
+      </c>
+      <c r="AD20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>57500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>68100</v>
+      </c>
+      <c r="F21" s="3">
         <v>84400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>90900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>75000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>39700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>33100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>53700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>51300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>44200</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>39800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>37800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>11600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>48200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>44400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>31400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>38300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>39900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>28900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>26600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>9100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>18400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>19600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>16300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F22" s="3">
         <v>4500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>3900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>2400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>2500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>3000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>2900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>3200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>3400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>3500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>3500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>4200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>4500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>4100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>4100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>4400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>4800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>4300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>3000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>2600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>2200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>2500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>2500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>2300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>2000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>44300</v>
+      </c>
+      <c r="F23" s="3">
         <v>64800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>59900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>56400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>21500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>13600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>34500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>29000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>21500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>18100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>8200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>16100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>11600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>26700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>23100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>11600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>20000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>23600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>14200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>11000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-5300</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>4400</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>7000</v>
       </c>
       <c r="AA23" s="3">
         <v>4400</v>
       </c>
       <c r="AB23" s="3">
+        <v>7000</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>4400</v>
+      </c>
+      <c r="AD23" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>10900</v>
+      </c>
+      <c r="F24" s="3">
         <v>16300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>15200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>14400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>5300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>3300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>8900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>7300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>5300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>4500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>2000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>3900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>2900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>6700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>5800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>2600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>4900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>6000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>3700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>4800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-2000</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>1700</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>2700</v>
       </c>
       <c r="AA24" s="3">
         <v>1700</v>
       </c>
       <c r="AB24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AD24" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2062,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>33400</v>
+      </c>
+      <c r="F26" s="3">
         <v>48500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>44700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>42000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>16200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>10300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>25600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>21700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>16200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>13600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>6200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>12200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>8700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>20000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>17300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>9000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>15100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>17700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>10400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>6200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-3300</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>2700</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>4300</v>
       </c>
       <c r="AA26" s="3">
         <v>2700</v>
       </c>
       <c r="AB26" s="3">
+        <v>4300</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>2700</v>
+      </c>
+      <c r="AD26" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>33400</v>
+      </c>
+      <c r="F27" s="3">
         <v>48500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>44700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>42000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>16200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>10300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>25600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>21700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>16200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>13600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>6200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>12200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>8700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>20000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>17300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>9000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>15100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>17700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>10400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>6200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-3300</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>2700</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>4300</v>
       </c>
       <c r="AA27" s="3">
         <v>2700</v>
       </c>
       <c r="AB27" s="3">
+        <v>4300</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>2700</v>
+      </c>
+      <c r="AD27" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2302,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2346,11 +2468,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2364,14 +2486,14 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
-        <v>18200</v>
+      <c r="W29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
+      <c r="Y29" s="3">
+        <v>18200</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2382,8 +2504,14 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2462,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2542,168 +2676,186 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-6100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>3600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>1500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-1800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-800</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>-500</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>-100</v>
       </c>
       <c r="AA32" s="3">
         <v>-500</v>
       </c>
       <c r="AB32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AD32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>33400</v>
+      </c>
+      <c r="F33" s="3">
         <v>48500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>44700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>42000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>16200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>10300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>25600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>21700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>16200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>13600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>6200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>12200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>8700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>20000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>17300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>9000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>15100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>17700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>10400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>24400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-3300</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>2700</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>4300</v>
       </c>
       <c r="AA33" s="3">
         <v>2700</v>
       </c>
       <c r="AB33" s="3">
+        <v>4300</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>2700</v>
+      </c>
+      <c r="AD33" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2782,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>33400</v>
+      </c>
+      <c r="F35" s="3">
         <v>48500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>44700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>42000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>16200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>10300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>25600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>21700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>16200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>13600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>6200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>12200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>8700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>20000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>17300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>9000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>15100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>17700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>10400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>24400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-3300</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>2700</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>4300</v>
       </c>
       <c r="AA35" s="3">
         <v>2700</v>
       </c>
       <c r="AB35" s="3">
+        <v>4300</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>2700</v>
+      </c>
+      <c r="AD35" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44835</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44744</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44653</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44471</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44380</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44289</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44107</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44016</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43925</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43736</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43645</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43554</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43372</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42917</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42826</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2977,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3007,280 +3179,300 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>76800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>47200</v>
+      </c>
+      <c r="F41" s="3">
         <v>14600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>14700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>14900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>13900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>13000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>13100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>10800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>8800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>8700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>8000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>8000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>7700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>6500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>6500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>6300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>5700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>2500</v>
-      </c>
-      <c r="U41" s="3">
-        <v>1700</v>
-      </c>
-      <c r="V41" s="3">
-        <v>2100</v>
       </c>
       <c r="W41" s="3">
         <v>1700</v>
       </c>
       <c r="X41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Z41" s="3">
         <v>2900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>2000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>3400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>1800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F42" s="3">
         <v>8600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>8200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>9000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>8000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>7800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>7900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>7500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>6500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>6700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>7200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>6300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>9400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>9100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>9600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>10200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>9300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>10400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>12500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>11900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>15100</v>
-      </c>
-      <c r="X42" s="3">
-        <v>14600</v>
-      </c>
-      <c r="Y42" s="3">
-        <v>14100</v>
       </c>
       <c r="Z42" s="3">
         <v>14600</v>
       </c>
       <c r="AA42" s="3">
+        <v>14100</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>14600</v>
+      </c>
+      <c r="AC42" s="3">
         <v>14400</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>361500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>376800</v>
+      </c>
+      <c r="F43" s="3">
         <v>406600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>426100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>423100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>368500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>351500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>312500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>289400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>282800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>272300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>201500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>240500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>231300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>232200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>227100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>241100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>240400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>235600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>233900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>220500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>191200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>187400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>175000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>170900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>162700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>165100</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
+      <c r="E44" s="3">
+        <v>11400</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="3">
-        <v>14100</v>
+      <c r="G44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
+      <c r="I44" s="3">
+        <v>14100</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K44" s="3">
-        <v>8300</v>
+      <c r="K44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
+      <c r="M44" s="3">
+        <v>8300</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>8</v>
@@ -3294,11 +3486,11 @@
       <c r="Q44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
-      </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -3327,168 +3519,186 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F45" s="3">
         <v>29400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>33600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>30800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>16100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>23800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>25600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>22100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>15200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>27500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>25200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>21200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>23400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>19000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>22000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>17800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>19800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>25800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>21100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>18900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>20600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>23200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>30500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>23600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>28700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>473800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>459700</v>
+      </c>
+      <c r="F46" s="3">
         <v>459200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>482600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>477800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>420700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>396100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>359200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>329900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>321500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>315200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>241900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>276000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>271800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>266800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>265200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>275500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>275300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>274400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>269100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>253500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>228700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>228100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>221600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>212500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>207500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>203600</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3567,168 +3777,186 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>511800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>490900</v>
+      </c>
+      <c r="F48" s="3">
         <v>481600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>449900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>449400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>451400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>456300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>450700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>448200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>462600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>459700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>438000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>446200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>434500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>397300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>386700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>384100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>303200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>298600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>284400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>272700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>267200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>263400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>260800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>255200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>246300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>236500</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>241500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>244700</v>
+      </c>
+      <c r="F49" s="3">
         <v>248400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>252000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>255500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>259100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>262500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>266000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>269500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>273000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>276800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>278000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>282100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>284600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>265400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>270500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>254100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>258900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>189900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>126000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>126800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>105700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>107000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>108200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>109900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>111700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>113500</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3807,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3887,88 +4121,100 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F52" s="3">
         <v>9900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>7000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>6500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>6300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>6100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>6400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>7100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>5900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>5300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>5500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>4200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>4600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>5300</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>5700</v>
-      </c>
-      <c r="R52" s="3">
-        <v>6100</v>
       </c>
       <c r="S52" s="3">
         <v>5700</v>
       </c>
       <c r="T52" s="3">
+        <v>6100</v>
+      </c>
+      <c r="U52" s="3">
+        <v>5700</v>
+      </c>
+      <c r="V52" s="3">
         <v>6000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>8400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>9500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>9000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>5300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>5800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>5500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>5100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4047,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1235300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1203700</v>
+      </c>
+      <c r="F54" s="3">
         <v>1199200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1191500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1189200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1137500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1121000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1082200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1054700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1063000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1056900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>963400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1008500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>995400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>934700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>928200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>919700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>843100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>769000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>687900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>662500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>610600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>603900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>596500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>583100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>570500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>558200</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4157,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4187,488 +4447,526 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>83700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>87100</v>
+      </c>
+      <c r="F57" s="3">
         <v>107500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>118700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>130500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>117800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>112900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>104300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>98600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>97900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>110800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>111700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>88800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>91900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>101500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>95100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>100700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>92000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>107000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>113500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>103900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>84400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>100800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>89100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>85700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>65900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>67500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>65300</v>
+      </c>
+      <c r="F58" s="3">
         <v>62500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>52400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>60500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>61200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>60600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>60000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>60000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>59700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>61200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>60100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>57900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>59500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>59900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>56300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>53500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>51900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>85000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>51600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>48200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>40900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>39200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>36700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>35000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>34600</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>35100</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>149100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>134500</v>
+      </c>
+      <c r="F59" s="3">
         <v>135400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>136800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>164800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>133700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>113000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>110900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>120300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>115200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>101300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>97800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>96900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>106000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>130900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>99700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>110100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>77200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>78300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>71000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>72200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>73800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>66900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>52900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>42400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>44000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>300300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>286900</v>
+      </c>
+      <c r="F60" s="3">
         <v>305400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>307900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>355800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>312700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>286400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>275200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>278900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>272800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>273300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>269600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>243600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>250400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>292300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>251100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>264200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>221200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>270300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>236100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>224300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>199100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>206900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>178800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>163000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>144500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>310200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>313200</v>
+      </c>
+      <c r="F61" s="3">
         <v>326700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>362900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>341200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>366200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>383000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>372100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>369000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>400400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>405400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>343600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>420900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>398100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>326700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>308100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>316100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>348500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>244300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>220600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>222800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>207100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>204400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>213500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>221300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>226900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>214100</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>156500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>156700</v>
+      </c>
+      <c r="F62" s="3">
         <v>152100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>153800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>158400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>156400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>163800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>153000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>147000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>150300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>150500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>133700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>135300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>141700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>117900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>131600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>118700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>64100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>49600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>38400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>36000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>35600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>46300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>53000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>47200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>51300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4747,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4827,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4907,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>767000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>756700</v>
+      </c>
+      <c r="F66" s="3">
         <v>784200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>824500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>855400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>835300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>833200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>800300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>794900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>823500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>829200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>746900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>799800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>790200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>736800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>690800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>699100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>633800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>564200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>495100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>483100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>441800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>457500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>445300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>431500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>422700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>412300</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5017,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5097,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5177,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5257,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5337,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>535700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>513600</v>
+      </c>
+      <c r="F72" s="3">
         <v>482900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>437200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>395300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>356100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>342700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>335300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>312500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>293600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>280200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>266700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>260500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>251200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>245300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>259700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>242700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>231500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>225500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>213400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>198700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>186200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>163800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>169100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>168400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>166000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>165300</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5497,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5577,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5657,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>468300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>446900</v>
+      </c>
+      <c r="F76" s="3">
         <v>415000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>367000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>333700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>302200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>287800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>281900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>259800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>239600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>227600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>216600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>208700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>205200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>197900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>237400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>220700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>209300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>204700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>192800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>179400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>168800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>146300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>151200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>151500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>147700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>145900</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5817,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44835</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44744</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44653</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44471</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44380</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44289</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44107</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44016</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43925</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43736</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43645</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43554</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43372</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42917</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42826</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>33400</v>
+      </c>
+      <c r="F81" s="3">
         <v>48500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>44700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>42000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>16200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>10300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>25600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>21700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>16200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>13600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>6200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>12200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>8700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>20000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>17300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>9000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>15100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>17700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>10400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>24400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-3300</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>2700</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>4300</v>
       </c>
       <c r="AA81" s="3">
         <v>2700</v>
       </c>
       <c r="AB81" s="3">
+        <v>4300</v>
+      </c>
+      <c r="AC81" s="3">
+        <v>2700</v>
+      </c>
+      <c r="AD81" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6012,88 +6408,96 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>18300</v>
+      </c>
+      <c r="F83" s="3">
         <v>15000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>27100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>16200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>15700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>16500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>16300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>19100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>19200</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="O83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>19500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>21600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>18800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>17400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>16900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>15000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>14000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>13200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>12200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>13300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>11800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>11500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>10300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>9900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6172,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6252,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6332,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6412,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6492,88 +6920,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>64500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>68900</v>
+      </c>
+      <c r="F89" s="3">
         <v>75200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>28200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>41100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>29500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>10300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>43100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>21600</v>
       </c>
-      <c r="L89" s="3" t="s">
+      <c r="N89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M89" s="3" t="s">
+      <c r="O89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>25200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-3900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>40100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>44100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>47800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>21000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>30500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>27300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>16100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>13400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>23400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>21200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>25800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>7700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6602,88 +7042,96 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-48300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-31500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-6000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-12600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-9300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-12000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-4900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-17900</v>
       </c>
-      <c r="L91" s="3" t="s">
+      <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3" t="s">
+      <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-32800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-19000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-35600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-14300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-10800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-12400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-22600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-24300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-7300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-16700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-13400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-15600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-17700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-18700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-32500</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6762,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6842,88 +7296,100 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-44300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-28700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-3400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-12100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-8100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-8900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-4200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-15000</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-30900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-66000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-31200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-35600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-10300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-83900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-82500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-24500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-38200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-16200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-12700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-14900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-17500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-18000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6952,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6964,58 +7432,58 @@
         <v>-2800</v>
       </c>
       <c r="F96" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="H96" s="3">
         <v>-5600</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-2800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-2800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-5700</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-5700</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-6000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-6100</v>
       </c>
       <c r="S96" s="3">
         <v>-3000</v>
       </c>
       <c r="T96" s="3">
-        <v>-3000</v>
+        <v>-6100</v>
       </c>
       <c r="U96" s="3">
         <v>-3000</v>
       </c>
       <c r="V96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="W96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="X96" s="3">
         <v>-2000</v>
@@ -7032,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>-2000</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7112,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7192,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7272,244 +7758,268 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-29100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-36700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-16400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>8500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-36900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-6800</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="O100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>10400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>70900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-8400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-37100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>67400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>52400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-1800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>20900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>1400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-9300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-8200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-7100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>10200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-900</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>700</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="O101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-4400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-1300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-1400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>1700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>600</v>
-      </c>
-      <c r="Z101" s="3">
-        <v>300</v>
-      </c>
-      <c r="AA101" s="3">
-        <v>300</v>
       </c>
       <c r="AB101" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>29600</v>
       </c>
       <c r="E102" s="3">
+        <v>32500</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>2300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>2000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3" t="s">
+      <c r="N102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M102" s="3" t="s">
+      <c r="O102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>3200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-1200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>1600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ULH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ULH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>ULH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,396 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
         <v>45017</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44471</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44380</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44289</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44107</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44016</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43925</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43372</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42917</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42826</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>412600</v>
+      </c>
+      <c r="E8" s="3">
         <v>437400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>458700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>505700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>527200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>523900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>467400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>445600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>422800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>415200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>386000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>365000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>258000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>382200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>375900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>375500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>383200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>377400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>386400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>374300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>365900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>335100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>314000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>313000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>305200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>284400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>264100</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>271500</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>277900</v>
+      </c>
+      <c r="E9" s="3">
         <v>295800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>310100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>336600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>354500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>368800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>344200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>331300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>309000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>296900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>281200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>266100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>186200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>278200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>273000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>275800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>272000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>270500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>283600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>273400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>265700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>248000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>230400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>230800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>223800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>206800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>192300</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>197100</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>134700</v>
+      </c>
+      <c r="E10" s="3">
         <v>141600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>148600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>169100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>172700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>155100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>123200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>114300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>113800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>118300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>104800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>98900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>71800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>104000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>102900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>99700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>111200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>106900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>102800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>100900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>100200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>87100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>83600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>82200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>81400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>77600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>71800</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>74400</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1085,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1172,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1261,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1331,94 +1350,100 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E15" s="3">
         <v>18500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>18300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>15000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>27100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>16200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>15700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>16500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>16300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>19100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>19200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>16900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>18500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>19500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>21600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>18800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>17400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>16900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>15000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>14000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>13200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>12200</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>13300</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>11800</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>11500</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>10300</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>9900</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1471,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>376200</v>
+      </c>
+      <c r="E17" s="3">
         <v>399200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>410600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>435900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>462500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>466000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>443600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>428900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>391500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>384100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>362400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>342900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>247100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>358300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>360400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>382800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>352500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>350900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>368500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>351800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>339700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>318000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>300900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>316500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>298800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>275300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>258200</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>261500</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E18" s="3">
         <v>38200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>48100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>69800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>64700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>57900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>23800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>16700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>31300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>31100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>23600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>22100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>23900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>15500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-7300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>30700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>26500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>17900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>22500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>26200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>17100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>13100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-3500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>6400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>9100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>5900</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,180 +1682,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>500</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>56500</v>
+      </c>
+      <c r="E21" s="3">
         <v>57500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>68100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>84400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>90900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>75000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>39700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>33100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>53700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>51300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>44200</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3">
         <v>39800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>37800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>11600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>48200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>44400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>31400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>38300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>39900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>28900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>26600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>9100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>18400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>19600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>16300</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1831,257 +1870,266 @@
         <v>5700</v>
       </c>
       <c r="E22" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F22" s="3">
         <v>5400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3400</v>
-      </c>
-      <c r="N22" s="3">
-        <v>3500</v>
       </c>
       <c r="O22" s="3">
         <v>3500</v>
       </c>
       <c r="P22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Q22" s="3">
         <v>4200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4500</v>
-      </c>
-      <c r="R22" s="3">
-        <v>4100</v>
       </c>
       <c r="S22" s="3">
         <v>4100</v>
       </c>
       <c r="T22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="U22" s="3">
         <v>4400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>3000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>2600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>2200</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>2500</v>
       </c>
       <c r="AA22" s="3">
         <v>2500</v>
       </c>
       <c r="AB22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AC22" s="3">
         <v>2300</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>2000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E23" s="3">
         <v>33200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>44300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>64800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>59900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>56400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>21500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>13600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>34500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>29000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>21500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>18100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>8200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>16100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>11600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-11300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>26700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>23100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>11600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>20000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>23600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>14200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>11000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-5300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>4400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>7000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>4400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E24" s="3">
         <v>8400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>10900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>16300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>15200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>14400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-2800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>6700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>4900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>6000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>3700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>4800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>2700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>1700</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2214,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E26" s="3">
         <v>24900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>33400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>48500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>44700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>42000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>16200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>10300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>25600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>21700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>16200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>13600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>12200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>8700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-8400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>20000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>17300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>9000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>15100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>17700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>10400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>6200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-3300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>4300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>2700</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E27" s="3">
         <v>24900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>33400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>48500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>44700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>42000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>16200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>10300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>25600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>21700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>16200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>13600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>12200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>8700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-8400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>20000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>17300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>9000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>15100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>17700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>10400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>6200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-3300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>4300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>2700</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2481,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2474,8 +2534,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2492,11 +2552,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>18200</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2510,8 +2570,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2659,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2748,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-500</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E33" s="3">
         <v>24900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>33400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>48500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>44700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>42000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>16200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>10300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>25600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>21700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>16200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>13600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>12200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>8700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>20000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>17300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>9000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>15100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>17700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>10400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>24400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-3300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>4300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>2700</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3015,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E35" s="3">
         <v>24900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>33400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>48500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>44700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>42000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>16200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>10300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>25600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>21700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>16200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>13600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>12200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>8700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>20000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>17300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>9000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>15100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>17700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>10400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>24400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-3300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>4300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>2700</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
         <v>45017</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44471</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44380</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44289</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44107</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44016</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43925</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43372</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42917</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42826</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3233,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,277 +3266,287 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E41" s="3">
         <v>76800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>47200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8700</v>
-      </c>
-      <c r="O41" s="3">
-        <v>8000</v>
       </c>
       <c r="P41" s="3">
         <v>8000</v>
       </c>
       <c r="Q41" s="3">
+        <v>8000</v>
+      </c>
+      <c r="R41" s="3">
         <v>7700</v>
-      </c>
-      <c r="R41" s="3">
-        <v>6500</v>
       </c>
       <c r="S41" s="3">
         <v>6500</v>
       </c>
       <c r="T41" s="3">
+        <v>6500</v>
+      </c>
+      <c r="U41" s="3">
         <v>6300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1800</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="E42" s="3">
         <v>10000</v>
       </c>
       <c r="F42" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G42" s="3">
         <v>8600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>8200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>9000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>8000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>7800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>7900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>7500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>6500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>6700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>7200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>6300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>9400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>9100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>9600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>10200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>9300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>10400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>12500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>11900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>15100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>14600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>14100</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>14600</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>14400</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>345100</v>
+      </c>
+      <c r="E43" s="3">
         <v>361500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>376800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>406600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>426100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>423100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>368500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>351500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>312500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>289400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>282800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>272300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>201500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>240500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>231300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>232200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>227100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>241100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>240400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>235600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>233900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>220500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>191200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>187400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>175000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>170900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>162700</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>165100</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="3">
         <v>11400</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>8</v>
@@ -3459,11 +3554,11 @@
       <c r="H44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3">
         <v>14100</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>8</v>
@@ -3471,11 +3566,11 @@
       <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" s="3">
         <v>8300</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>8</v>
@@ -3492,8 +3587,8 @@
       <c r="S44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
+      <c r="T44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U44" s="3">
         <v>0</v>
@@ -3525,180 +3620,189 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E45" s="3">
         <v>25500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>29400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>33600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>30800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>23800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>25600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>22100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>27500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>25200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>21200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>23400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>19000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>22000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>17800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>19800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>25800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>21100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>18900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>20600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>23200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>30500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>23600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>28700</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>447900</v>
+      </c>
+      <c r="E46" s="3">
         <v>473800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>459700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>459200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>482600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>477800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>420700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>396100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>359200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>329900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>321500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>315200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>241900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>276000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>271800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>266800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>265200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>275500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>275300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>274400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>269100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>253500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>228700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>228100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>221600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>212500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>207500</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>203600</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,180 +3887,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>538800</v>
+      </c>
+      <c r="E48" s="3">
         <v>511800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>490900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>481600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>449900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>449400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>451400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>456300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>450700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>448200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>462600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>459700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>438000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>446200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>434500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>397300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>386700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>384100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>303200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>298600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>284400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>272700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>267200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>263400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>260800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>255200</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>246300</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>236500</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>238300</v>
+      </c>
+      <c r="E49" s="3">
         <v>241500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>244700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>248400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>252000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>255500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>259100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>262500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>266000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>269500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>273000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>276800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>278000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>282100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>284600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>265400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>270500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>254100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>258900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>189900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>126000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>126800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>105700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>107000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>108200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>109900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>111700</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>113500</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4154,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4243,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E52" s="3">
         <v>8200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>6000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>8400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>9500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>9000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>5300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>5800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>5500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>5100</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4421,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1235400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1235300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1203700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1199200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1191500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1189200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1137500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1121000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1082200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1054700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1063000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1056900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>963400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1008500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>995400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>934700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>928200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>919700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>843100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>769000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>687900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>662500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>610600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>603900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>596500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>583100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>570500</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>558200</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4545,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,524 +4578,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>76700</v>
+      </c>
+      <c r="E57" s="3">
         <v>83700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>87100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>107500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>118700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>130500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>117800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>112900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>104300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>98600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>97900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>110800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>111700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>88800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>91900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>101500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>95100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>100700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>92000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>107000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>113500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>103900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>84400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>100800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>89100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>85700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>65900</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E58" s="3">
         <v>67500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>65300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>62500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>52400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>60500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>61200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>60600</v>
-      </c>
-      <c r="K58" s="3">
-        <v>60000</v>
       </c>
       <c r="L58" s="3">
         <v>60000</v>
       </c>
       <c r="M58" s="3">
+        <v>60000</v>
+      </c>
+      <c r="N58" s="3">
         <v>59700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>61200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>60100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>57900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>59500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>59900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>56300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>53500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>51900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>85000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>51600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>48200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>40900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>39200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>36700</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>35000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>34600</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>35100</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>139500</v>
+      </c>
+      <c r="E59" s="3">
         <v>149100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>134500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>135400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>136800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>164800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>133700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>113000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>110900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>120300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>115200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>101300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>97800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>96900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>106000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>130900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>99700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>110100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>77200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>78300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>71000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>72200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>73800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>66900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>52900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>42400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>44000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>286300</v>
+      </c>
+      <c r="E60" s="3">
         <v>300300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>286900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>305400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>307900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>355800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>312700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>286400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>275200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>278900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>272800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>273300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>269600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>243600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>250400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>292300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>251100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>264200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>221200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>270300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>236100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>224300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>199100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>206900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>178800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>163000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>144500</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>308000</v>
+      </c>
+      <c r="E61" s="3">
         <v>310200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>313200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>326700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>362900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>341200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>366200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>383000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>372100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>369000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>400400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>405400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>343600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>420900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>398100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>326700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>308100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>316100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>348500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>244300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>220600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>222800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>207100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>204400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>213500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>221300</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>226900</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>214100</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>151700</v>
+      </c>
+      <c r="E62" s="3">
         <v>156500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>156700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>152100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>153800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>158400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>156400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>163800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>153000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>147000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>150300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>150500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>133700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>135300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>141700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>117900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>131600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>118700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>64100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>49600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>38400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>36000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>35600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>46300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>53000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>47200</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>51300</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5199,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5288,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5377,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>746000</v>
+      </c>
+      <c r="E66" s="3">
         <v>767000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>756700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>784200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>824500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>855400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>835300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>833200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>800300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>794900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>823500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>829200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>746900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>799800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>790200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>736800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>690800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>699100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>633800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>564200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>495100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>483100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>441800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>457500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>445300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>431500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>422700</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>412300</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5501,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5588,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5677,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5766,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5855,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>556500</v>
+      </c>
+      <c r="E72" s="3">
         <v>535700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>513600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>482900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>437200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>395300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>356100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>342700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>335300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>312500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>293600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>280200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>266700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>260500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>251200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>245300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>259700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>242700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>231500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>225500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>213400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>198700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>186200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>163800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>169100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>168400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>166000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>165300</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6033,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6122,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6211,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>489400</v>
+      </c>
+      <c r="E76" s="3">
         <v>468300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>446900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>415000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>367000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>333700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>302200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>287800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>281900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>259800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>239600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>227600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>216600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>208700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>205200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>197900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>237400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>220700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>209300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>204700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>192800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>179400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>168800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>146300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>151200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>151500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>147700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>145900</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6389,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
         <v>45017</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44471</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44380</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44289</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44107</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44016</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43925</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43372</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42917</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42826</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E81" s="3">
         <v>24900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>33400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>48500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>44700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>42000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>16200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>10300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>25600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>21700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>16200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>13600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>12200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>8700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>20000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>17300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>9000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>15100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>17700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>10400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>24400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-3300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>4300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>2700</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6607,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E83" s="3">
         <v>18500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>18300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>15000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>27100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>16200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>15700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>16500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>16300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>19100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>19200</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q83" s="3">
         <v>19500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>21600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>18800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>17400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>16900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>15000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>14000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>13200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>12200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>13300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>11800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>11500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>10300</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>9900</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6783,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6872,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6961,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7050,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7139,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E89" s="3">
         <v>64500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>68900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>75200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>28200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>41100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>29500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>43100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>21600</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q89" s="3">
         <v>25200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>40100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>44100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>47800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>21000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>30500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>27300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>16100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>13400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>23400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>21200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>25800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>7700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7263,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-31300</v>
+        <v>-48500</v>
       </c>
       <c r="E91" s="3">
         <v>-31300</v>
       </c>
       <c r="F91" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="G91" s="3">
         <v>-48300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-31500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-12600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-17900</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-32800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-19000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-35600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-14300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-10800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-12400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-22600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-24300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-7300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-16700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-13400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-15600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-17700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-18700</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-32500</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7439,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7528,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-47500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-29700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-27400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-44300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-28700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-12100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-15000</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-30900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-66000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-31200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-35600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-10300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-83900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-82500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-24500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-38200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-16200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-12700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-14900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-17500</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-18000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7652,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7438,23 +7671,23 @@
         <v>-2800</v>
       </c>
       <c r="H96" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I96" s="3">
         <v>-5600</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
-        <v>-2800</v>
+        <v>0</v>
       </c>
       <c r="K96" s="3">
         <v>-2800</v>
       </c>
       <c r="L96" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="M96" s="3">
         <v>-5700</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -7462,22 +7695,22 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-6000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-3000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-6100</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-3000</v>
       </c>
       <c r="V96" s="3">
         <v>-3000</v>
@@ -7486,7 +7719,7 @@
         <v>-3000</v>
       </c>
       <c r="X96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="Y96" s="3">
         <v>-2000</v>
@@ -7506,8 +7739,11 @@
       <c r="AD96" s="3">
         <v>-2000</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7828,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7917,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,171 +8006,177 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-13600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-29100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-36700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-16400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>8500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-36900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6800</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q100" s="3">
         <v>10400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>70900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-8700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-8400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-37100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>67400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>52400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>20900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-9300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-8200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-7100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>10200</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>4600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-900</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>700</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>300</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>600</v>
-      </c>
-      <c r="AB101" s="3">
-        <v>300</v>
       </c>
       <c r="AC101" s="3">
         <v>300</v>
@@ -7936,90 +8184,96 @@
       <c r="AD101" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E102" s="3">
         <v>29600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>32500</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1200</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>200</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ULH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ULH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>ULH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,396 +665,409 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44835</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44744</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44653</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44471</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44380</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44289</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44107</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44016</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43925</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43645</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43554</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43372</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42917</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42826</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>421300</v>
+      </c>
+      <c r="E8" s="3">
         <v>412600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>437400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>458700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>505700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>527200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>523900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>467400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>445600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>422800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>415200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>386000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>365000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>258000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>382200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>375900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>375500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>383200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>377400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>386400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>374300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>365900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>335100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>314000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>313000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>305200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>284400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>264100</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>271500</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>282300</v>
+      </c>
+      <c r="E9" s="3">
         <v>277900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>295800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>310100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>336600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>354500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>368800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>344200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>331300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>309000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>296900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>281200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>266100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>186200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>278200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>273000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>275800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>272000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>270500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>283600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>273400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>265700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>248000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>230400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>230800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>223800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>206800</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>192300</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>197100</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>139000</v>
+      </c>
+      <c r="E10" s="3">
         <v>134700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>141600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>148600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>169100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>172700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>155100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>123200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>114300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>113800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>118300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>104800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>98900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>71800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>104000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>102900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>99700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>111200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>106900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>102800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>100900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>100200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>87100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>83600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>82200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>81400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>77600</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>71800</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>74400</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1086,8 +1099,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1175,8 +1189,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1264,8 +1281,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1353,97 +1373,103 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E15" s="3">
         <v>19200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>18500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>18300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>15000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>27100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>16200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>15700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>16500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>16300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>19100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>19200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>16900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>18500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>19500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>21600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>18800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>17400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>16900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>15000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>14000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>13200</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>12200</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>13300</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>11800</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>11500</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>10300</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>9900</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1472,186 +1498,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>384500</v>
+      </c>
+      <c r="E17" s="3">
         <v>376200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>399200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>410600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>435900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>462500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>466000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>443600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>428900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>391500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>384100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>362400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>342900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>247100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>358300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>360400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>382800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>352500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>350900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>368500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>351800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>339700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>318000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>300900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>316500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>298800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>275300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>258200</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>261500</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>36800</v>
+      </c>
+      <c r="E18" s="3">
         <v>36400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>38200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>48100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>69800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>64700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>57900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>23800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>16700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>31300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>31100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>23600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>22100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>23900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>15500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-7300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>30700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>26500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>17900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>22500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>26200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>17100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>13100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-3500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>6400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>9100</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>5900</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1683,453 +1716,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>100</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>500</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>56800</v>
+      </c>
+      <c r="E21" s="3">
         <v>56500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>57500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>68100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>84400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>90900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>75000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>39700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>33100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>53700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>51300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>44200</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3">
         <v>39800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>37800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>11600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>48200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>44400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>31400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>38300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>39900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>28900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>26600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>9100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>18400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>19600</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>16300</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5700</v>
+        <v>6500</v>
       </c>
       <c r="E22" s="3">
         <v>5700</v>
       </c>
       <c r="F22" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G22" s="3">
         <v>5400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3400</v>
-      </c>
-      <c r="O22" s="3">
-        <v>3500</v>
       </c>
       <c r="P22" s="3">
         <v>3500</v>
       </c>
       <c r="Q22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="R22" s="3">
         <v>4200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4500</v>
-      </c>
-      <c r="S22" s="3">
-        <v>4100</v>
       </c>
       <c r="T22" s="3">
         <v>4100</v>
       </c>
       <c r="U22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="V22" s="3">
         <v>4400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>4300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>3000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>2600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>2200</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>2500</v>
       </c>
       <c r="AB22" s="3">
         <v>2500</v>
       </c>
       <c r="AC22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AD22" s="3">
         <v>2300</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>2000</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E23" s="3">
         <v>31600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>33200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>44300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>64800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>59900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>56400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>21500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>13600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>34500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>29000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>21500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>18100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>8200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>16100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>11600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-11300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>26700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>23100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>11600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>20000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>23600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>14200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>11000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-5300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>4400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>7000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>4400</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E24" s="3">
         <v>8000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>10900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>16300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>15200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>14400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-2800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>6700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>6000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>3700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>4800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>2700</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>1700</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2217,186 +2266,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E26" s="3">
         <v>23600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>24900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>33400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>48500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>44700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>42000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>16200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>10300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>25600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>21700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>16200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>13600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>12200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>8700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-8400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>20000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>17300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>9000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>15100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>17700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>10400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>6200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-3300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>2700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>4300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>2700</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E27" s="3">
         <v>23600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>24900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>33400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>48500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>44700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>42000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>16200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>10300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>25600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>21700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>16200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>13600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>12200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>8700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-8400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>20000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>17300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>9000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>15100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>17700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>10400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>6200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-3300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>2700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>4300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>2700</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2484,8 +2542,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2537,8 +2598,8 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2555,11 +2616,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3">
         <v>18200</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2573,8 +2634,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2662,8 +2726,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2751,186 +2818,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-100</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-500</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E33" s="3">
         <v>23600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>24900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>33400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>48500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>44700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>42000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>16200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>10300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>25600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>21700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>16200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>13600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>12200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>8700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-8400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>20000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>17300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>9000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>15100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>17700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>10400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>24400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-3300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>2700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>4300</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>2700</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3018,191 +3094,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E35" s="3">
         <v>23600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>24900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>33400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>48500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>44700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>42000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>16200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>10300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>25600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>21700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>16200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>13600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>12200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>8700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-8400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>20000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>17300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>9000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>15100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>17700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>10400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>24400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-3300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>2700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>4300</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>2700</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44835</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44744</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44653</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44471</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44380</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44289</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44107</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44016</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43925</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43645</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43554</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43372</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42917</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42826</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3234,8 +3319,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3267,275 +3353,285 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E41" s="3">
         <v>65000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>76800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>47200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8700</v>
-      </c>
-      <c r="P41" s="3">
-        <v>8000</v>
       </c>
       <c r="Q41" s="3">
         <v>8000</v>
       </c>
       <c r="R41" s="3">
+        <v>8000</v>
+      </c>
+      <c r="S41" s="3">
         <v>7700</v>
-      </c>
-      <c r="S41" s="3">
-        <v>6500</v>
       </c>
       <c r="T41" s="3">
         <v>6500</v>
       </c>
       <c r="U41" s="3">
+        <v>6500</v>
+      </c>
+      <c r="V41" s="3">
         <v>6300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>3400</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1800</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E42" s="3">
         <v>10100</v>
-      </c>
-      <c r="E42" s="3">
-        <v>10000</v>
       </c>
       <c r="F42" s="3">
         <v>10000</v>
       </c>
       <c r="G42" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H42" s="3">
         <v>8600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>8200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>9000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>8000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>7800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>7900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>7500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>6500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>6700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>7200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>6300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>9400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>9100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>9600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>10200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>9300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>10400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>12500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>11900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>15100</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>14600</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>14100</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>14600</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>14400</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>335500</v>
+      </c>
+      <c r="E43" s="3">
         <v>345100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>361500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>376800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>406600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>426100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>423100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>368500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>351500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>312500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>289400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>282800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>272300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>201500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>240500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>231300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>232200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>227100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>241100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>240400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>235600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>233900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>220500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>191200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>187400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>175000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>170900</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>162700</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>165100</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3545,11 +3641,11 @@
       <c r="E44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3">
         <v>11400</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>8</v>
@@ -3557,11 +3653,11 @@
       <c r="I44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="3">
         <v>14100</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>8</v>
@@ -3569,11 +3665,11 @@
       <c r="M44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="3">
         <v>8300</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>8</v>
@@ -3590,8 +3686,8 @@
       <c r="T44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U44" s="3">
-        <v>0</v>
+      <c r="U44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
@@ -3623,186 +3719,195 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E45" s="3">
         <v>27700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>25500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>29400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>33600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>30800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>23800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>25600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>22100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>15200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>27500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>25200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>21200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>23400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>19000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>22000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>17800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>19800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>25800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>21100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>18900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>20600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>23200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>30500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>23600</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>28700</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>389200</v>
+      </c>
+      <c r="E46" s="3">
         <v>447900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>473800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>459700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>459200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>482600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>477800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>420700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>396100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>359200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>329900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>321500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>315200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>241900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>276000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>271800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>266800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>265200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>275500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>275300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>274400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>269100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>253500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>228700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>228100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>221600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>212500</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>207500</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>203600</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3890,186 +3995,195 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>626500</v>
+      </c>
+      <c r="E48" s="3">
         <v>538800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>511800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>490900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>481600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>449900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>449400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>451400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>456300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>450700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>448200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>462600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>459700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>438000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>446200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>434500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>397300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>386700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>384100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>303200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>298600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>284400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>272700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>267200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>263400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>260800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>255200</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>246300</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>236500</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>235200</v>
+      </c>
+      <c r="E49" s="3">
         <v>238300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>241500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>244700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>248400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>252000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>255500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>259100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>262500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>266000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>269500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>273000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>276800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>278000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>282100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>284600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>265400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>270500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>254100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>258900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>189900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>126000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>126800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>105700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>107000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>108200</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>109900</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>111700</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>113500</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4157,8 +4271,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4246,97 +4363,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E52" s="3">
         <v>10400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>6100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>6000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>8400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>9500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>9000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>5300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>5800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>5500</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>5100</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4424,97 +4547,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1259300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1235400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1235300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1203700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1199200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1191500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1189200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1137500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1121000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1082200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1054700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1063000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1056900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>963400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1008500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>995400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>934700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>928200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>919700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>843100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>769000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>687900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>662500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>610600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>603900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>596500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>583100</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>570500</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>558200</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4546,8 +4675,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4579,542 +4709,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>83900</v>
+      </c>
+      <c r="E57" s="3">
         <v>76700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>83700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>87100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>107500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>118700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>130500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>117800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>112900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>104300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>98600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>97900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>110800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>111700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>88800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>91900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>101500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>95100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>100700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>92000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>107000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>113500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>103900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>84400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>100800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>89100</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>85700</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>65900</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>69900</v>
+      </c>
+      <c r="E58" s="3">
         <v>70000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>67500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>65300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>62500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>52400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>60500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>61200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>60600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>60000</v>
       </c>
       <c r="M58" s="3">
         <v>60000</v>
       </c>
       <c r="N58" s="3">
+        <v>60000</v>
+      </c>
+      <c r="O58" s="3">
         <v>59700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>61200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>60100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>57900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>59500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>59900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>56300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>53500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>51900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>85000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>51600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>48200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>40900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>39200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>36700</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>35000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>34600</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>35100</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>133200</v>
+      </c>
+      <c r="E59" s="3">
         <v>139500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>149100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>134500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>135400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>136800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>164800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>133700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>113000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>110900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>120300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>115200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>101300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>97800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>96900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>106000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>130900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>99700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>110100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>77200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>78300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>71000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>72200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>73800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>66900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>52900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>42400</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>44000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>286900</v>
+      </c>
+      <c r="E60" s="3">
         <v>286300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>300300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>286900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>305400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>307900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>355800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>312700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>286400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>275200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>278900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>272800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>273300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>269600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>243600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>250400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>292300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>251100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>264200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>221200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>270300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>236100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>224300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>199100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>206900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>178800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>163000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>144500</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>317400</v>
+      </c>
+      <c r="E61" s="3">
         <v>308000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>310200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>313200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>326700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>362900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>341200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>366200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>383000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>372100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>369000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>400400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>405400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>343600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>420900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>398100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>326700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>308100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>316100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>348500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>244300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>220600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>222800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>207100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>204400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>213500</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>221300</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>226900</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>214100</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>144800</v>
+      </c>
+      <c r="E62" s="3">
         <v>151700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>156500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>156700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>152100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>153800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>158400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>156400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>163800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>153000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>147000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>150300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>150500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>133700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>135300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>141700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>117900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>131600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>118700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>64100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>49600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>38400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>36000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>35600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>46300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>53000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>47200</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>51300</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5202,8 +5351,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5291,8 +5443,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5380,97 +5535,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>749100</v>
+      </c>
+      <c r="E66" s="3">
         <v>746000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>767000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>756700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>784200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>824500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>855400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>835300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>833200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>800300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>794900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>823500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>829200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>746900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>799800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>790200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>736800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>690800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>699100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>633800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>564200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>495100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>483100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>441800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>457500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>445300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>431500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>422700</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>412300</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5502,8 +5663,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5591,8 +5753,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5680,8 +5845,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5769,8 +5937,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5858,97 +6029,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>576800</v>
+      </c>
+      <c r="E72" s="3">
         <v>556500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>535700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>513600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>482900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>437200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>395300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>356100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>342700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>335300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>312500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>293600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>280200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>266700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>260500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>251200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>245300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>259700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>242700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>231500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>225500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>213400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>198700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>186200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>163800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>169100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>168400</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>166000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>165300</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6036,8 +6213,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6125,8 +6305,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6214,97 +6397,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>510200</v>
+      </c>
+      <c r="E76" s="3">
         <v>489400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>468300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>446900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>415000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>367000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>333700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>302200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>287800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>281900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>259800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>239600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>227600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>216600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>208700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>205200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>197900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>237400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>220700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>209300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>204700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>192800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>179400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>168800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>146300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>151200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>151500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>147700</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>145900</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6392,191 +6581,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45017</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44835</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44744</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44653</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44471</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44380</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44289</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44107</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44016</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43925</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43645</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43554</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43372</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42917</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42826</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E81" s="3">
         <v>23600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>24900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>33400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>48500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>44700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>42000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>16200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>10300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>25600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>21700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>16200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>13600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>12200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>8700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-8400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>20000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>17300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>9000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>15100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>17700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>10400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>24400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-3300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>2700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>4300</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>2700</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6608,97 +6806,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E83" s="3">
         <v>19200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>18500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>18300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>15000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>27100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>16200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>15700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>16500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>16300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>19100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>19200</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R83" s="3">
         <v>19500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>21600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>18800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>17400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>16900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>15000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>14000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>13200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>12200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>13300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>11800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>11500</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>10300</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>9900</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6786,8 +6988,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6875,8 +7080,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6964,8 +7172,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7053,8 +7264,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7142,97 +7356,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E89" s="3">
         <v>40500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>64500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>68900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>75200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>28200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>41100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>29500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>10300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>43100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>21600</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R89" s="3">
         <v>25200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>40100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>44100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>47800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>21000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>30500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>27300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>16100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>13400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>23400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>21200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>25800</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>7700</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7264,97 +7484,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-112300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-48500</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-31300</v>
       </c>
       <c r="F91" s="3">
         <v>-31300</v>
       </c>
       <c r="G91" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="H91" s="3">
         <v>-48300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-31500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-12600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-12000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-17900</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R91" s="3">
         <v>-32800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-19000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-35600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-14300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-10800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-12400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-22600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-24300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-7300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-16700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-13400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-15600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-17700</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-18700</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-32500</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7442,8 +7666,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7531,97 +7758,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-111400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-47500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-29700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-27400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-44300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-28700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-12100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-15000</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R94" s="3">
         <v>-30900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-66000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-31200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-35600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-10300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-83900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-82500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-24500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-38200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-16200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-12700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-14900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-17500</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-18000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7653,8 +7886,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7674,23 +7908,23 @@
         <v>-2800</v>
       </c>
       <c r="I96" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J96" s="3">
         <v>-5600</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
-        <v>-2800</v>
+        <v>0</v>
       </c>
       <c r="L96" s="3">
         <v>-2800</v>
       </c>
       <c r="M96" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="N96" s="3">
         <v>-5700</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -7698,22 +7932,22 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-5700</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-6000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-3000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-6100</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-3000</v>
       </c>
       <c r="W96" s="3">
         <v>-3000</v>
@@ -7722,7 +7956,7 @@
         <v>-3000</v>
       </c>
       <c r="Y96" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="Z96" s="3">
         <v>-2000</v>
@@ -7742,8 +7976,11 @@
       <c r="AE96" s="3">
         <v>-2000</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7831,8 +8068,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7920,8 +8160,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8009,177 +8252,183 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-13600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-29100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-36700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-16400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>8500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-36900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6800</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R100" s="3">
         <v>10400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>70900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-8700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-8400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-37100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>67400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>52400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>20900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-9300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-8200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-7100</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>10200</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>4600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-900</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>700</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>300</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R101" s="3">
         <v>-4400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-500</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>600</v>
-      </c>
-      <c r="AC101" s="3">
-        <v>300</v>
       </c>
       <c r="AD101" s="3">
         <v>300</v>
@@ -8187,93 +8436,99 @@
       <c r="AE101" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-11800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>29600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>32500</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1200</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>3200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>1600</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>200</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-2500</v>
       </c>
     </row>
